--- a/Uploads/btc_etf_net_flow.xlsx
+++ b/Uploads/btc_etf_net_flow.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D521"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,175 +461,175 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1457.357178459286</v>
+        <v>-1023.662019325001</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-31433898</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1160.430355504286</v>
+        <v>-1526.917353545001</v>
       </c>
       <c r="B3" t="n">
-        <v>-5729.70079942</v>
+        <v>-973.8424511999997</v>
       </c>
       <c r="C3" t="n">
-        <v>-625324512.9302119</v>
+        <v>-101920532.7343642</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45819</v>
+        <v>45820</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-524.2410921135713</v>
+        <v>-1160.430355504287</v>
       </c>
       <c r="B4" t="n">
-        <v>-3096.131463530001</v>
+        <v>-5729.70079942</v>
       </c>
       <c r="C4" t="n">
-        <v>-342623425.7563301</v>
+        <v>-625324512.9302119</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45818</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-99.35602684285691</v>
+        <v>-524.2410921135723</v>
       </c>
       <c r="B5" t="n">
-        <v>-457.8558134799998</v>
+        <v>-3096.131463530001</v>
       </c>
       <c r="C5" t="n">
-        <v>-48814345.87642519</v>
+        <v>-342623425.75633</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45817</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-125.2300143142855</v>
+        <v>-99.35602684285791</v>
       </c>
       <c r="B6" t="n">
-        <v>8.888e-05</v>
+        <v>-457.8558134799997</v>
       </c>
       <c r="C6" t="n">
-        <v>9.4010171376</v>
+        <v>-48814345.87642521</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45816</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-125.2300206628569</v>
+        <v>-125.2300143142865</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.888e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.4010171376</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45815</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-125.2300206628569</v>
+        <v>-125.2300206628579</v>
       </c>
       <c r="B8" t="n">
-        <v>-2012.25598022</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-210677815.0492297</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45814</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>599.4022578078574</v>
+        <v>-125.2300206628579</v>
       </c>
       <c r="B9" t="n">
-        <v>2640.06160606</v>
+        <v>-2012.25598022</v>
       </c>
       <c r="C9" t="n">
-        <v>276355079.6032889</v>
+        <v>-210677815.0492299</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45813</v>
+        <v>45814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>831.0414991157144</v>
+        <v>599.4022578078565</v>
       </c>
       <c r="B10" t="n">
-        <v>3457.31624726</v>
+        <v>2640.06160606</v>
       </c>
       <c r="C10" t="n">
-        <v>363524007.065331</v>
+        <v>276355079.6032889</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45812</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>808.9854558721429</v>
+        <v>831.0414991157135</v>
       </c>
       <c r="B11" t="n">
-        <v>-2013.16205615</v>
+        <v>3457.31624726</v>
       </c>
       <c r="C11" t="n">
-        <v>-213028655.7260475</v>
+        <v>363524007.0653309</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1406.126159840714</v>
+        <v>808.9854558721421</v>
       </c>
       <c r="B12" t="n">
-        <v>-5845.697648749999</v>
+        <v>-2013.16205615</v>
       </c>
       <c r="C12" t="n">
-        <v>-610696501.8530964</v>
+        <v>-213028655.7260474</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45810</v>
+        <v>45811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2002.756800594286</v>
+        <v>1406.126159840713</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-5845.69764875</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-610696501.8530967</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45809</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2002.756800594286</v>
+        <v>2002.756800594285</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -638,91 +638,91 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2002.756800594286</v>
+        <v>2002.756800594285</v>
       </c>
       <c r="B15" t="n">
-        <v>-7345.57467908</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-769887266.1653045</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45807</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2692.891458013571</v>
+        <v>2002.756800594285</v>
       </c>
       <c r="B16" t="n">
-        <v>4156.975521370001</v>
+        <v>-7345.574679079997</v>
       </c>
       <c r="C16" t="n">
-        <v>445270338.7152392</v>
+        <v>-769887266.1653044</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2611.454705167143</v>
+        <v>2692.891458013571</v>
       </c>
       <c r="B17" t="n">
-        <v>3176.94888805</v>
+        <v>4156.97552137</v>
       </c>
       <c r="C17" t="n">
-        <v>342057407.8460792</v>
+        <v>445270338.7152392</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45805</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2261.792608124285</v>
+        <v>2611.454705167142</v>
       </c>
       <c r="B18" t="n">
-        <v>2852.259450260001</v>
+        <v>3176.948888049999</v>
       </c>
       <c r="C18" t="n">
-        <v>313824212.111551</v>
+        <v>342057407.8460793</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45804</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2069.431218892143</v>
+        <v>2261.792608124285</v>
       </c>
       <c r="B19" t="n">
-        <v>-820.0916380800001</v>
+        <v>2852.25945026</v>
       </c>
       <c r="C19" t="n">
-        <v>-90185428.23415934</v>
+        <v>313824212.111551</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45803</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2338.370063061428</v>
+        <v>2069.431218892143</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-820.0916380799999</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-90185428.23415934</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45802</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="21">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45801</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="22">
@@ -744,83 +744,83 @@
         <v>2338.370063061428</v>
       </c>
       <c r="B22" t="n">
-        <v>8132.595918370001</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>888902297.625267</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45800</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1840.364583550714</v>
+        <v>2338.370063061428</v>
       </c>
       <c r="B23" t="n">
-        <v>5883.010984369999</v>
+        <v>8132.595918370002</v>
       </c>
       <c r="C23" t="n">
-        <v>653993774.2105862</v>
+        <v>888902297.625267</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1525.666565172858</v>
+        <v>1840.364583550714</v>
       </c>
       <c r="B24" t="n">
-        <v>3148.53164185</v>
+        <v>5883.010984369999</v>
       </c>
       <c r="C24" t="n">
-        <v>341277848.8491126</v>
+        <v>653993774.2105862</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1234.733866896429</v>
+        <v>1525.666565172857</v>
       </c>
       <c r="B25" t="n">
-        <v>6346.807799409999</v>
+        <v>3148.53164185</v>
       </c>
       <c r="C25" t="n">
-        <v>665562456.7583406</v>
+        <v>341277848.8491125</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1118.630177065715</v>
+        <v>1234.733866896428</v>
       </c>
       <c r="B26" t="n">
-        <v>2507.1313218</v>
+        <v>6346.807799409999</v>
       </c>
       <c r="C26" t="n">
-        <v>260785434.0816735</v>
+        <v>665562456.7583406</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1436.257195072858</v>
+        <v>1118.630177065714</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.421010862427522e-20</v>
+        <v>2507.131321799998</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>260785434.0816736</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45795</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="28">
@@ -828,97 +828,97 @@
         <v>1436.257195072858</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.18584612615602e-20</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-6.661338147750939e-16</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45794</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1436.257195287144</v>
+        <v>1436.257195072858</v>
       </c>
       <c r="B29" t="n">
-        <v>2316.310524789998</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241208214.6224896</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45793</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1582.999954080001</v>
+        <v>1436.257195287144</v>
       </c>
       <c r="B30" t="n">
-        <v>3016.86098152</v>
+        <v>2316.310524789999</v>
       </c>
       <c r="C30" t="n">
-        <v>308772933.4221232</v>
+        <v>241208214.6224894</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792</v>
+        <v>45793</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1429.294903080001</v>
+        <v>1582.999954080001</v>
       </c>
       <c r="B31" t="n">
-        <v>-1718.32047055</v>
+        <v>3016.86098152</v>
       </c>
       <c r="C31" t="n">
-        <v>-178111541.0201932</v>
+        <v>308772933.4221233</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45791</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1676.94323155143</v>
+        <v>1429.294903080001</v>
       </c>
       <c r="B32" t="n">
-        <v>159.2000010100002</v>
+        <v>-1718.320470549999</v>
       </c>
       <c r="C32" t="n">
-        <v>16359282.75865273</v>
+        <v>-178111541.0201931</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45790</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2114.668116922144</v>
+        <v>1676.943231551429</v>
       </c>
       <c r="B33" t="n">
-        <v>2945.05218029</v>
+        <v>159.2000010099988</v>
       </c>
       <c r="C33" t="n">
-        <v>299643513.2693775</v>
+        <v>16359282.75865276</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45789</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2187.367856146429</v>
+        <v>2114.668116922144</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2945.052180290001</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>299643513.2693775</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45788</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="35">
@@ -926,97 +926,97 @@
         <v>2187.367856146429</v>
       </c>
       <c r="B35" t="n">
-        <v>-8.470329472543003e-21</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000216089999999225</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45787</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2187.367857217858</v>
+        <v>2187.367856146429</v>
       </c>
       <c r="B36" t="n">
-        <v>1160.51920522</v>
+        <v>-8.470329472543003e-21</v>
       </c>
       <c r="C36" t="n">
-        <v>119474360.405363</v>
+        <v>0.000216089999999225</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45786</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2420.610433905001</v>
+        <v>2187.367857217858</v>
       </c>
       <c r="B37" t="n">
-        <v>1477.238727080004</v>
+        <v>1160.51920522</v>
       </c>
       <c r="C37" t="n">
-        <v>146685624.8253535</v>
+        <v>119474360.4053629</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45785</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2973.381392237858</v>
+        <v>2420.610433905001</v>
       </c>
       <c r="B38" t="n">
-        <v>-924.5261340199995</v>
+        <v>1477.238727080001</v>
       </c>
       <c r="C38" t="n">
-        <v>-89446202.62454975</v>
+        <v>146685624.8253532</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45784</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3730.629327710001</v>
+        <v>2973.381392237858</v>
       </c>
       <c r="B39" t="n">
-        <v>4721.356141779999</v>
+        <v>-924.5261340199988</v>
       </c>
       <c r="C39" t="n">
-        <v>445751294.9695259</v>
+        <v>-89446202.62454984</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45783</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3702.006568948572</v>
+        <v>3730.629327710001</v>
       </c>
       <c r="B40" t="n">
-        <v>6953.909573900004</v>
+        <v>4721.356141780001</v>
       </c>
       <c r="C40" t="n">
-        <v>656467839.2071944</v>
+        <v>445751294.9695259</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45782</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3300.86306361</v>
+        <v>3702.006568948572</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6953.909573900005</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>656467839.2071942</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45781</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="42">
@@ -1024,97 +1024,97 @@
         <v>3300.86306361</v>
       </c>
       <c r="B42" t="n">
-        <v>3e-06</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29008779</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45780</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3300.863063395715</v>
+        <v>3300.86306361</v>
       </c>
       <c r="B43" t="n">
-        <v>4370.709147889998</v>
+        <v>3e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>425325158.7631027</v>
+        <v>0.29008779</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45779</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2988.669552832143</v>
+        <v>3300.863063395715</v>
       </c>
       <c r="B44" t="n">
-        <v>864.9902675199995</v>
+        <v>4370.70914789</v>
       </c>
       <c r="C44" t="n">
-        <v>84311303.77109462</v>
+        <v>425325158.7631028</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45778</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2689.538380626429</v>
+        <v>2988.669552832143</v>
       </c>
       <c r="B45" t="n">
-        <v>1748.756128050001</v>
+        <v>864.9902675200003</v>
       </c>
       <c r="C45" t="n">
-        <v>164304906.9532648</v>
+        <v>84311303.77109464</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2629.555615418572</v>
+        <v>2689.538380626429</v>
       </c>
       <c r="B46" t="n">
-        <v>6287.348396199999</v>
+        <v>1748.756128050002</v>
       </c>
       <c r="C46" t="n">
-        <v>598219986.8488407</v>
+        <v>164304906.9532647</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45776</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2189.875213855715</v>
+        <v>2629.555615418572</v>
       </c>
       <c r="B47" t="n">
-        <v>3962.84852943</v>
+        <v>6287.348396199999</v>
       </c>
       <c r="C47" t="n">
-        <v>374435372.2429451</v>
+        <v>598219986.8488406</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45775</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1897.502661618572</v>
+        <v>2189.875213855715</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>3962.84852943</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>374435372.2429453</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45774</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="49">
@@ -1122,102 +1122,102 @@
         <v>1897.502661618572</v>
       </c>
       <c r="B49" t="n">
-        <v>1.5e-05</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.42101402</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45773</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1897.502660547143</v>
+        <v>1897.502661618572</v>
       </c>
       <c r="B50" t="n">
-        <v>4425.915278839999</v>
+        <v>1.5e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>420746146.2094383</v>
+        <v>1.42101402</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45772</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1513.73422106</v>
+        <v>1897.502660547143</v>
       </c>
       <c r="B51" t="n">
-        <v>9216.03214374</v>
+        <v>4425.91527884</v>
       </c>
       <c r="C51" t="n">
-        <v>858200755.2550461</v>
+        <v>420746146.2094384</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45771</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>775.4344356035721</v>
+        <v>1513.734221060001</v>
       </c>
       <c r="B52" t="n">
-        <v>9676.944962589998</v>
+        <v>9216.032143739998</v>
       </c>
       <c r="C52" t="n">
-        <v>904383975.7074989</v>
+        <v>858200755.2550461</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45770</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-230.0586832242848</v>
+        <v>775.4344356035723</v>
       </c>
       <c r="B53" t="n">
-        <v>4320.63751912</v>
+        <v>9676.94496259</v>
       </c>
       <c r="C53" t="n">
-        <v>388776562.4267491</v>
+        <v>904383975.7074988</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45769</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-624.8613684135705</v>
+        <v>-230.0586832242849</v>
       </c>
       <c r="B54" t="n">
-        <v>1337.90049916</v>
+        <v>4320.63751912</v>
       </c>
       <c r="C54" t="n">
-        <v>117663681.0463135</v>
+        <v>388776562.4267492</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45768</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-795.5438187499991</v>
+        <v>-624.8613684135706</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1337.90049916</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>117663681.0463134</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45767</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-795.5438187499991</v>
+        <v>-795.5438187499992</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1226,12 +1226,12 @@
         <v>0</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-795.5438167964276</v>
+        <v>-795.5438187499992</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1240,82 +1240,82 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45765</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-868.5803467521418</v>
+        <v>-795.5438167964277</v>
       </c>
       <c r="B58" t="n">
-        <v>-3322.84614336</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-280024866.9873616</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-448.6753231128561</v>
+        <v>-868.580346752142</v>
       </c>
       <c r="B59" t="n">
-        <v>908.99741514</v>
+        <v>-3322.846143359999</v>
       </c>
       <c r="C59" t="n">
-        <v>76788863.78635883</v>
+        <v>-280024866.9873616</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45763</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-563.1126353114275</v>
+        <v>-448.6753231128563</v>
       </c>
       <c r="B60" t="n">
-        <v>131.82277432</v>
+        <v>908.9974151399999</v>
       </c>
       <c r="C60" t="n">
-        <v>11308225.55201844</v>
+        <v>76788863.78635883</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45762</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-602.7929445492846</v>
+        <v>-563.1126353114278</v>
       </c>
       <c r="B61" t="n">
-        <v>-130.3672018900001</v>
+        <v>131.82277432</v>
       </c>
       <c r="C61" t="n">
-        <v>-10997849.70494691</v>
+        <v>11308225.55201844</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45761</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-630.8717107449989</v>
+        <v>-602.7929445492849</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-130.3672018900002</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-10997849.70494691</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45760</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-630.8717064471418</v>
+        <v>-630.8717107449993</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1324,684 +1324,684 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45759</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-630.8716990242847</v>
+        <v>-630.8717064471422</v>
       </c>
       <c r="B64" t="n">
-        <v>-946.8428739799999</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>-77817723.60095422</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45758</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-501.2433541821419</v>
+        <v>-630.871699024285</v>
       </c>
       <c r="B65" t="n">
-        <v>-1120.16485265</v>
+        <v>-946.8428739800003</v>
       </c>
       <c r="C65" t="n">
-        <v>-91537418.86582962</v>
+        <v>-77817723.60095423</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45757</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-351.2588393492848</v>
+        <v>-501.2433541821421</v>
       </c>
       <c r="B66" t="n">
-        <v>-4399.958700999998</v>
+        <v>-1120.16485265</v>
       </c>
       <c r="C66" t="n">
-        <v>-339737166.3820554</v>
+        <v>-91537418.86582962</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45756</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-11.04339178214205</v>
+        <v>-351.258839349285</v>
       </c>
       <c r="B67" t="n">
-        <v>-1206.60007353</v>
+        <v>-4399.958701</v>
       </c>
       <c r="C67" t="n">
-        <v>-96166820.80147503</v>
+        <v>-339737166.3820552</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45755</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131.4050376285722</v>
+        <v>-11.04339178214203</v>
       </c>
       <c r="B68" t="n">
-        <v>-1051.65380555</v>
+        <v>-1206.60007353</v>
       </c>
       <c r="C68" t="n">
-        <v>-82317697.61616729</v>
+        <v>-96166820.80147503</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45754</v>
+        <v>45755</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>281.2293501450008</v>
+        <v>131.4050376285721</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-1051.65380555</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-82317697.61616729</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45753</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>281.2293501450008</v>
+        <v>281.2293501450007</v>
       </c>
       <c r="B70" t="n">
-        <v>2.735e-05</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2.2727071072</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>281.2294278971436</v>
+        <v>281.2293501450007</v>
       </c>
       <c r="B71" t="n">
-        <v>-1022.51141938</v>
+        <v>2.735e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>-84760206.66291478</v>
+        <v>2.2727071072</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45751</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>489.9167461421435</v>
+        <v>281.2294278971435</v>
       </c>
       <c r="B72" t="n">
-        <v>2555.82418759</v>
+        <v>-1022.51141938</v>
       </c>
       <c r="C72" t="n">
-        <v>207501872.4497671</v>
+        <v>-84760206.66291478</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45750</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>322.274868865715</v>
+        <v>489.9167461421435</v>
       </c>
       <c r="B73" t="n">
-        <v>-693.1249556399996</v>
+        <v>2555.82418759</v>
       </c>
       <c r="C73" t="n">
-        <v>-59450556.61347207</v>
+        <v>207501872.4497671</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45749</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>553.9168439021435</v>
+        <v>322.2748688657149</v>
       </c>
       <c r="B74" t="n">
-        <v>-423.7015550099999</v>
+        <v>-693.1249556399998</v>
       </c>
       <c r="C74" t="n">
-        <v>-36383583.32189318</v>
+        <v>-59450556.61347204</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45748</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>816.2800866442861</v>
+        <v>553.9168439021433</v>
       </c>
       <c r="B75" t="n">
-        <v>-523.4699286300003</v>
+        <v>-423.7015550100003</v>
       </c>
       <c r="C75" t="n">
-        <v>-43830372.12743714</v>
+        <v>-36383583.32189319</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45747</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>884.5193935442861</v>
+        <v>816.2800866442861</v>
       </c>
       <c r="B76" t="n">
-        <v>6.017e-05</v>
+        <v>-523.4699286300001</v>
       </c>
       <c r="C76" t="n">
-        <v>5.0101002869</v>
+        <v>-43830372.12743714</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45746</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>884.5194271457148</v>
+        <v>884.5193935442861</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001039200000000003</v>
+        <v>6.017e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>8.722941189399995</v>
+        <v>5.0101002869</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45745</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>884.5194752042862</v>
+        <v>884.5194271457148</v>
       </c>
       <c r="B78" t="n">
-        <v>867.9539538100001</v>
+        <v>0.0001039200000000002</v>
       </c>
       <c r="C78" t="n">
-        <v>73590339.25506577</v>
+        <v>8.722941189400002</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45744</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>749.1835499821434</v>
+        <v>884.5194752042862</v>
       </c>
       <c r="B79" t="n">
-        <v>979.6183550099993</v>
+        <v>867.9539538099998</v>
       </c>
       <c r="C79" t="n">
-        <v>85569705.5881744</v>
+        <v>73590339.2550658</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45743</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>680.8881638457149</v>
+        <v>749.1835499821434</v>
       </c>
       <c r="B80" t="n">
-        <v>363.05756494</v>
+        <v>979.6183550100009</v>
       </c>
       <c r="C80" t="n">
-        <v>31509761.46570582</v>
+        <v>85569705.58817445</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45742</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>418.1590269921434</v>
+        <v>680.8881638457148</v>
       </c>
       <c r="B81" t="n">
-        <v>787.6779382199993</v>
+        <v>363.0575649400002</v>
       </c>
       <c r="C81" t="n">
-        <v>68859532.39997321</v>
+        <v>31509761.46570582</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45741</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>61.6795081342862</v>
+        <v>418.1590269921433</v>
       </c>
       <c r="B82" t="n">
-        <v>1045.88656968</v>
+        <v>787.6779382199977</v>
       </c>
       <c r="C82" t="n">
-        <v>92316782.17471665</v>
+        <v>68859532.39997323</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45740</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-237.273222071428</v>
+        <v>61.67950813428625</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1045.88656968</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>92316782.17471664</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45739</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-237.2732205085709</v>
+        <v>-237.273222071428</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001115880000000001</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>94.1257728037</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45738</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-237.2732998235709</v>
+        <v>-237.2732205085709</v>
       </c>
       <c r="B85" t="n">
-        <v>1899.111036049999</v>
+        <v>0.00111588</v>
       </c>
       <c r="C85" t="n">
-        <v>159362930.0153683</v>
+        <v>94.1257728037</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45737</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-478.0549873642851</v>
+        <v>-237.2732998235709</v>
       </c>
       <c r="B86" t="n">
-        <v>208.83790572</v>
+        <v>1899.11103605</v>
       </c>
       <c r="C86" t="n">
-        <v>17657050.0039301</v>
+        <v>159362930.0153682</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45736</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-511.9231447707137</v>
+        <v>-478.0549873642852</v>
       </c>
       <c r="B87" t="n">
-        <v>2549.862694869998</v>
+        <v>208.83790572</v>
       </c>
       <c r="C87" t="n">
-        <v>215068841.6455752</v>
+        <v>17657050.00393009</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45735</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1034.732669449999</v>
+        <v>-511.9231447707138</v>
       </c>
       <c r="B88" t="n">
-        <v>3249.383843379999</v>
+        <v>2549.862694869998</v>
       </c>
       <c r="C88" t="n">
-        <v>267068015.5529743</v>
+        <v>215068841.6455751</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45734</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1360.686221030714</v>
+        <v>-1034.732669449999</v>
       </c>
       <c r="B89" t="n">
-        <v>431.8803679699998</v>
+        <v>3249.383843379999</v>
       </c>
       <c r="C89" t="n">
-        <v>35774870.50502102</v>
+        <v>267068015.5529744</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1262.257538289285</v>
+        <v>-1360.686221030714</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0005305899999999998</v>
+        <v>431.8803679700002</v>
       </c>
       <c r="C90" t="n">
-        <v>44.8012190401</v>
+        <v>35774870.50502098</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-1262.257553917856</v>
+        <v>-1262.257538289285</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0007767400000000008</v>
+        <v>0.0005305899999999998</v>
       </c>
       <c r="C91" t="n">
-        <v>65.64515722539996</v>
+        <v>44.80121904010004</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1262.765836898571</v>
+        <v>-1262.257553917856</v>
       </c>
       <c r="B92" t="n">
-        <v>-1026.7489993</v>
+        <v>0.00077674</v>
       </c>
       <c r="C92" t="n">
-        <v>-86809326.63548951</v>
+        <v>65.64515722540003</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1321.408855480713</v>
+        <v>-1262.765836898571</v>
       </c>
       <c r="B93" t="n">
-        <v>23.48294910000014</v>
+        <v>-1026.7489993</v>
       </c>
       <c r="C93" t="n">
-        <v>1431242.362959802</v>
+        <v>-86809326.63548946</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1832.838940705713</v>
+        <v>-1321.408855480713</v>
       </c>
       <c r="B94" t="n">
-        <v>-3315.150351010001</v>
+        <v>23.48294909999993</v>
       </c>
       <c r="C94" t="n">
-        <v>-273786959.5638471</v>
+        <v>1431242.362959825</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2279.29723314857</v>
+        <v>-1832.838940705713</v>
       </c>
       <c r="B95" t="n">
-        <v>-4203.035325790001</v>
+        <v>-3315.15035101</v>
       </c>
       <c r="C95" t="n">
-        <v>-344777663.4988701</v>
+        <v>-273786959.5638471</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-2228.025921207142</v>
+        <v>-2279.29723314857</v>
       </c>
       <c r="B96" t="n">
-        <v>-3139.451653199999</v>
+        <v>-4203.035325790001</v>
       </c>
       <c r="C96" t="n">
-        <v>-253384237.0883939</v>
+        <v>-344777663.4988703</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-2076.474325845713</v>
+        <v>-2228.025921207142</v>
       </c>
       <c r="B97" t="n">
-        <v>2.188e-05</v>
+        <v>-3139.4516532</v>
       </c>
       <c r="C97" t="n">
-        <v>1.8887021672</v>
+        <v>-253384237.0883939</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45725</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-2076.47432740857</v>
+        <v>-2076.474325845713</v>
       </c>
       <c r="B98" t="n">
-        <v>5.47e-06</v>
+        <v>2.188e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4712165961000001</v>
+        <v>1.8887021672</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45724</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-2076.474327799285</v>
+        <v>-2076.47432740857</v>
       </c>
       <c r="B99" t="n">
-        <v>-1471.83258952</v>
+        <v>5.47e-06</v>
       </c>
       <c r="C99" t="n">
-        <v>-131087788.8003442</v>
+        <v>0.4712165961000001</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45723</v>
+        <v>45724</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-2164.626822802142</v>
+        <v>-2076.474327799285</v>
       </c>
       <c r="B100" t="n">
-        <v>-265.3162979699999</v>
+        <v>-1471.832589520001</v>
       </c>
       <c r="C100" t="n">
-        <v>-23417074.29335766</v>
+        <v>-131087788.8003442</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-2159.466091786428</v>
+        <v>-2164.626822802142</v>
       </c>
       <c r="B101" t="n">
-        <v>-4769.47065064</v>
+        <v>-265.3162979700008</v>
       </c>
       <c r="C101" t="n">
-        <v>-421891295.5995898</v>
+        <v>-23417074.29335766</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1852.36152551357</v>
+        <v>-2159.466091786428</v>
       </c>
       <c r="B102" t="n">
-        <v>-1313.96587875</v>
+        <v>-4769.470650639999</v>
       </c>
       <c r="C102" t="n">
-        <v>-109811027.179133</v>
+        <v>-421891295.5995898</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45720</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1715.850923960713</v>
+        <v>-1852.36152551357</v>
       </c>
       <c r="B103" t="n">
-        <v>1809.88192635</v>
+        <v>-1313.96587875</v>
       </c>
       <c r="C103" t="n">
-        <v>164072933.8332067</v>
+        <v>-109811027.179133</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45719</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-1839.295836177856</v>
+        <v>-1715.850923960713</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0003117899999999999</v>
+        <v>1809.881926349999</v>
       </c>
       <c r="C104" t="n">
-        <v>27.01609145330001</v>
+        <v>164072933.8332068</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45718</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1839.295842822142</v>
+        <v>-1839.295836177856</v>
       </c>
       <c r="B105" t="n">
-        <v>-7.115184990000029</v>
+        <v>0.0003117899999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>-598745.0649931441</v>
+        <v>27.0160914533</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45717</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1838.78758836357</v>
+        <v>-1839.295842822142</v>
       </c>
       <c r="B106" t="n">
-        <v>-1847.75125945</v>
+        <v>-7.115184990000039</v>
       </c>
       <c r="C106" t="n">
-        <v>-148693679.7654443</v>
+        <v>-598745.0649931454</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45716</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1763.915082539284</v>
+        <v>-1838.78758836357</v>
       </c>
       <c r="B107" t="n">
-        <v>-7136.538244049997</v>
+        <v>-1847.75125945</v>
       </c>
       <c r="C107" t="n">
-        <v>-614831435.5230309</v>
+        <v>-148693679.7654443</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1371.033237836428</v>
+        <v>-1763.915082539284</v>
       </c>
       <c r="B108" t="n">
-        <v>-9565.566445210005</v>
+        <v>-7136.53824405</v>
       </c>
       <c r="C108" t="n">
-        <v>-833593064.7591854</v>
+        <v>-614831435.5230308</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45714</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-695.0509074085701</v>
+        <v>-1371.033237836427</v>
       </c>
       <c r="B109" t="n">
-        <v>-3485.23695861</v>
+        <v>-9565.566445209997</v>
       </c>
       <c r="C109" t="n">
-        <v>-309504577.0340813</v>
+        <v>-833593064.7591851</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-484.192640795713</v>
+        <v>-695.0509074085704</v>
       </c>
       <c r="B110" t="n">
-        <v>-1017.72931814</v>
+        <v>-3485.236958610001</v>
       </c>
       <c r="C110" t="n">
-        <v>-96762241.95359716</v>
+        <v>-309504577.0340814</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-288.3941648064273</v>
+        <v>-484.1926407957134</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>-1017.72931814</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-96762241.95359714</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-288.394164415713</v>
+        <v>-288.3941648064277</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -2010,390 +2010,390 @@
         <v>0</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45710</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-288.3941968471416</v>
+        <v>-288.3941644157134</v>
       </c>
       <c r="B113" t="n">
-        <v>-2705.96751956</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-267483107.8334796</v>
+        <v>0</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45709</v>
+        <v>45710</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-131.0591597571416</v>
+        <v>-288.3941968471419</v>
       </c>
       <c r="B114" t="n">
-        <v>-193.0660637500002</v>
+        <v>-2705.96751956</v>
       </c>
       <c r="C114" t="n">
-        <v>-18743937.02365079</v>
+        <v>-267483107.8334796</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-76.98725397071296</v>
+        <v>-131.0591597571419</v>
       </c>
       <c r="B115" t="n">
-        <v>-470.0067228199997</v>
+        <v>-193.0660637500001</v>
       </c>
       <c r="C115" t="n">
-        <v>-45384687.58414891</v>
+        <v>-18743937.02365079</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45707</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>106.1121200921441</v>
+        <v>-76.98725397071335</v>
       </c>
       <c r="B116" t="n">
-        <v>597.1825429900002</v>
+        <v>-470.0067228199996</v>
       </c>
       <c r="C116" t="n">
-        <v>57760228.1932009</v>
+        <v>-45384687.58414892</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-170.0878939614272</v>
+        <v>106.1121200921438</v>
       </c>
       <c r="B117" t="n">
-        <v>81.65315531000006</v>
+        <v>597.1825429900003</v>
       </c>
       <c r="C117" t="n">
-        <v>7860625.975326017</v>
+        <v>57760228.19320086</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45705</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>37.2000587650014</v>
+        <v>-170.0878939614276</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00021877</v>
+        <v>81.65315531000002</v>
       </c>
       <c r="C118" t="n">
-        <v>21.3058344714</v>
+        <v>7860625.975326018</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45704</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>37.20004313857283</v>
+        <v>37.20005876500096</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0003774299999999997</v>
+        <v>0.00021877</v>
       </c>
       <c r="C119" t="n">
-        <v>36.83651263930001</v>
+        <v>21.30583447139999</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45703</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>36.7050184592871</v>
+        <v>37.20004313857239</v>
       </c>
       <c r="B120" t="n">
-        <v>-799.5361779099999</v>
+        <v>0.0003774299999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>-78009020.59589541</v>
+        <v>36.8365126393</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45702</v>
+        <v>45703</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>482.2615422428586</v>
+        <v>36.70501845928667</v>
       </c>
       <c r="B121" t="n">
-        <v>-1636.19241821</v>
+        <v>-799.5361779099997</v>
       </c>
       <c r="C121" t="n">
-        <v>-156677524.9309226</v>
+        <v>-78009020.59589539</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>666.2377821221444</v>
+        <v>482.2615422428581</v>
       </c>
       <c r="B122" t="n">
-        <v>-101.8138192200001</v>
+        <v>-1636.19241821</v>
       </c>
       <c r="C122" t="n">
-        <v>-9953765.984425949</v>
+        <v>-156677524.9309226</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>686.4281026135729</v>
+        <v>666.2377821221438</v>
       </c>
       <c r="B123" t="n">
-        <v>-533.2212260300015</v>
+        <v>-101.8138192200001</v>
       </c>
       <c r="C123" t="n">
-        <v>-51552962.78984741</v>
+        <v>-9953765.984425956</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>573.5255212585731</v>
+        <v>686.4281026135724</v>
       </c>
       <c r="B124" t="n">
-        <v>1723.44934571</v>
+        <v>-533.2212260300009</v>
       </c>
       <c r="C124" t="n">
-        <v>168427796.8876402</v>
+        <v>-51552962.78984742</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>564.4875479271446</v>
+        <v>573.5255212585723</v>
       </c>
       <c r="B125" t="n">
-        <v>5.47e-06</v>
+        <v>1723.44934571</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5303542977000001</v>
+        <v>168427796.8876402</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45697</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>564.4875475364303</v>
+        <v>564.4875479271437</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.00045404</v>
+        <v>5.47e-06</v>
       </c>
       <c r="C126" t="n">
-        <v>-43.9470719076</v>
+        <v>0.5303542977000001</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45696</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>564.4875799678588</v>
+        <v>564.4875475364295</v>
       </c>
       <c r="B127" t="n">
-        <v>-503.2770003000002</v>
+        <v>-0.00045404</v>
       </c>
       <c r="C127" t="n">
-        <v>-50066238.88918865</v>
+        <v>-43.9470719076</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45695</v>
+        <v>45696</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-20.23494537785532</v>
+        <v>564.487579967858</v>
       </c>
       <c r="B128" t="n">
-        <v>563.9406172600001</v>
+        <v>-503.2770002999999</v>
       </c>
       <c r="C128" t="n">
-        <v>55438805.7227216</v>
+        <v>-50066238.88918866</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>109.5518238950018</v>
+        <v>-20.23494537785626</v>
       </c>
       <c r="B129" t="n">
-        <v>2093.38451406</v>
+        <v>563.9406172600002</v>
       </c>
       <c r="C129" t="n">
-        <v>205367503.5712703</v>
+        <v>55438805.72272158</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>490.9869559914305</v>
+        <v>109.5518238950008</v>
       </c>
       <c r="B130" t="n">
-        <v>-3269.617653759999</v>
+        <v>2093.38451406</v>
       </c>
       <c r="C130" t="n">
-        <v>-330412653.2966531</v>
+        <v>205367503.5712703</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1434.994557571431</v>
+        <v>490.9869559914295</v>
       </c>
       <c r="B131" t="n">
-        <v>2983.68449348</v>
+        <v>-3269.617653759999</v>
       </c>
       <c r="C131" t="n">
-        <v>294785908.306101</v>
+        <v>-330412653.2966532</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45691</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1237.945666594288</v>
+        <v>1434.994557571429</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>2983.68449348</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>294785908.306101</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45690</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1237.945676648573</v>
+        <v>1237.945666594287</v>
       </c>
       <c r="B133" t="n">
-        <v>-6.929968080000208</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>-709800.1079115123</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45689</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1238.440680497145</v>
+        <v>1237.945676648572</v>
       </c>
       <c r="B134" t="n">
-        <v>5438.255155060001</v>
+        <v>-6.929968080000153</v>
       </c>
       <c r="C134" t="n">
-        <v>570547653.6151077</v>
+        <v>-709800.107911509</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45688</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1273.511372760716</v>
+        <v>1238.440680497144</v>
       </c>
       <c r="B135" t="n">
-        <v>939.4749401000001</v>
+        <v>5438.25515506</v>
       </c>
       <c r="C135" t="n">
-        <v>98883961.92393865</v>
+        <v>570547653.6151077</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45687</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1733.033683172145</v>
+        <v>1273.511372760715</v>
       </c>
       <c r="B136" t="n">
-        <v>180.8506676599999</v>
+        <v>939.4749401</v>
       </c>
       <c r="C136" t="n">
-        <v>18511187.26439881</v>
+        <v>98883961.92393863</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45686</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1552.751295367145</v>
+        <v>1733.033683172143</v>
       </c>
       <c r="B137" t="n">
-        <v>-2113.857365</v>
+        <v>180.8506676599999</v>
       </c>
       <c r="C137" t="n">
-        <v>-216996097.9128989</v>
+        <v>18511187.26439881</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1584.249313597859</v>
+        <v>1552.751295367143</v>
       </c>
       <c r="B138" t="n">
-        <v>1596.917719070001</v>
+        <v>-2113.857365</v>
       </c>
       <c r="C138" t="n">
-        <v>157622323.1747107</v>
+        <v>-216996097.9128988</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45684</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1357.880312763574</v>
+        <v>1584.249313597858</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1596.917719069999</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>157622323.1747109</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45683</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1357.880314906431</v>
+        <v>1357.880312763572</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2402,292 +2402,292 @@
         <v>0</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45682</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1357.880314906431</v>
+        <v>1357.880314906429</v>
       </c>
       <c r="B141" t="n">
-        <v>-8689.392355139998</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-918511212.5186492</v>
+        <v>0</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45681</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1956.064484083574</v>
+        <v>1357.880314906429</v>
       </c>
       <c r="B142" t="n">
-        <v>2380.95538708</v>
+        <v>-8689.392355139998</v>
       </c>
       <c r="C142" t="n">
-        <v>251705880.3854356</v>
+        <v>-918511212.5186492</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1454.288604029288</v>
+        <v>1956.064484083572</v>
       </c>
       <c r="B143" t="n">
-        <v>7433.476363410001</v>
+        <v>2380.955387079999</v>
       </c>
       <c r="C143" t="n">
-        <v>775239405.8244165</v>
+        <v>251705880.3854356</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>995.128863737145</v>
+        <v>1454.288604029286</v>
       </c>
       <c r="B144" t="n">
-        <v>9946.488768360003</v>
+        <v>7433.476363410001</v>
       </c>
       <c r="C144" t="n">
-        <v>1046030670.453369</v>
+        <v>775239405.8244166</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>945.1715548442878</v>
+        <v>995.1288637371434</v>
       </c>
       <c r="B145" t="n">
-        <v>225.0000198</v>
+        <v>9946.488768359999</v>
       </c>
       <c r="C145" t="n">
-        <v>24296442.5036253</v>
+        <v>1046030670.453369</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45677</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1564.490519157145</v>
+        <v>945.1715548442864</v>
       </c>
       <c r="B146" t="n">
-        <v>0.00014076</v>
+        <v>225.0000198</v>
       </c>
       <c r="C146" t="n">
-        <v>14.747491026</v>
+        <v>24296442.5036253</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45676</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1564.49050910286</v>
+        <v>1564.490519157144</v>
       </c>
       <c r="B147" t="n">
-        <v>8.579999999999998e-05</v>
+        <v>0.00014076</v>
       </c>
       <c r="C147" t="n">
-        <v>8.886276630000003</v>
+        <v>14.747491026</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45675</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1564.490502974288</v>
+        <v>1564.490509102858</v>
       </c>
       <c r="B148" t="n">
-        <v>5929.24484675</v>
+        <v>8.579999999999998e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>617939867.5587542</v>
+        <v>8.886276630000001</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45674</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>958.6301849242882</v>
+        <v>1564.490502974287</v>
       </c>
       <c r="B149" t="n">
-        <v>7372.787285860001</v>
+        <v>5929.244846750002</v>
       </c>
       <c r="C149" t="n">
-        <v>732553248.3981123</v>
+        <v>617939867.5587542</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>444.5635090664309</v>
+        <v>958.6301849242863</v>
       </c>
       <c r="B150" t="n">
-        <v>-2343.102761609999</v>
+        <v>7372.787285859998</v>
       </c>
       <c r="C150" t="n">
-        <v>-226560869.2757159</v>
+        <v>732553248.3981124</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>611.4065581864307</v>
+        <v>444.5635090664292</v>
       </c>
       <c r="B151" t="n">
-        <v>-1672.88510977</v>
+        <v>-2343.10276161</v>
       </c>
       <c r="C151" t="n">
-        <v>-161794425.2734342</v>
+        <v>-226560869.2757159</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>357.8879354114309</v>
+        <v>611.4065581864292</v>
       </c>
       <c r="B152" t="n">
-        <v>-1572.24829261</v>
+        <v>-1672.88510977</v>
       </c>
       <c r="C152" t="n">
-        <v>-144032525.3898224</v>
+        <v>-161794425.2734342</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>402.4281150485737</v>
+        <v>357.8879354114292</v>
       </c>
       <c r="B153" t="n">
-        <v>3e-05</v>
+        <v>-1572.24829261</v>
       </c>
       <c r="C153" t="n">
-        <v>2.8338579</v>
+        <v>-144032525.3898223</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45669</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>402.4281129057166</v>
+        <v>402.428115048572</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2.8338579</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45668</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>402.4281133021452</v>
+        <v>402.4281129057148</v>
       </c>
       <c r="B155" t="n">
-        <v>-314.81398666</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-29770017.31197198</v>
+        <v>0</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45667</v>
+        <v>45668</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>780.2634345121452</v>
+        <v>402.4281133021435</v>
       </c>
       <c r="B156" t="n">
-        <v>-4643.906933679998</v>
+        <v>-314.8139866599998</v>
       </c>
       <c r="C156" t="n">
-        <v>-433357636.2401409</v>
+        <v>-29770017.311972</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45666</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>925.1926105414308</v>
+        <v>780.2634345121434</v>
       </c>
       <c r="B157" t="n">
-        <v>1005.23999932</v>
+        <v>-4643.906933679999</v>
       </c>
       <c r="C157" t="n">
-        <v>93089033.45408089</v>
+        <v>-433357636.240141</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45665</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>853.3897538378594</v>
+        <v>925.1926105414292</v>
       </c>
       <c r="B158" t="n">
-        <v>9247.086443860002</v>
+        <v>1005.23999932</v>
       </c>
       <c r="C158" t="n">
-        <v>913964619.7393497</v>
+        <v>93089033.45408089</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45664</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>133.011243627145</v>
+        <v>853.3897538378577</v>
       </c>
       <c r="B159" t="n">
-        <v>8895.465520180003</v>
+        <v>9247.086443860002</v>
       </c>
       <c r="C159" t="n">
-        <v>896091938.5815361</v>
+        <v>913964619.7393497</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45663</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-671.5789070135695</v>
+        <v>133.0112436271432</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>8895.46552018</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>896091938.5815359</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45662</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-671.5789070135695</v>
+        <v>-671.5789070135712</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -2696,194 +2696,194 @@
         <v>0</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45661</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-671.5789070135695</v>
+        <v>-671.5789070135712</v>
       </c>
       <c r="B162" t="n">
-        <v>-2552.799605950001</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-246698656.3708435</v>
+        <v>0</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45660</v>
+        <v>45661</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-816.4112978314269</v>
+        <v>-671.5789070135712</v>
       </c>
       <c r="B163" t="n">
-        <v>175.8538238500001</v>
+        <v>-2552.799605950001</v>
       </c>
       <c r="C163" t="n">
-        <v>16894026.05610802</v>
+        <v>-246698656.3708436</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45659</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-663.1576362749984</v>
+        <v>-816.4112978314282</v>
       </c>
       <c r="B164" t="n">
-        <v>-7.300073930000003</v>
+        <v>175.8538238499999</v>
       </c>
       <c r="C164" t="n">
-        <v>-683915.2372111552</v>
+        <v>16894026.05610805</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45658</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-245.3449551028553</v>
+        <v>-663.1576362749996</v>
       </c>
       <c r="B165" t="n">
-        <v>-5222.14582862</v>
+        <v>-7.300073930000003</v>
       </c>
       <c r="C165" t="n">
-        <v>-498855291.4150696</v>
+        <v>-683915.2372111552</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45657</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>227.1931656942874</v>
+        <v>-245.3449551028566</v>
       </c>
       <c r="B166" t="n">
-        <v>-948.6857776900001</v>
+        <v>-5222.14582862</v>
       </c>
       <c r="C166" t="n">
-        <v>-87486690.3549968</v>
+        <v>-498855291.4150695</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-425.5071267135696</v>
+        <v>227.1931656942864</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>-948.6857776900006</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-87486690.3549968</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45655</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-425.5071205978552</v>
+        <v>-425.5071267135702</v>
       </c>
       <c r="B168" t="n">
-        <v>5.55e-06</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5274611775</v>
+        <v>0</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45654</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-425.5071209942839</v>
+        <v>-425.5071205978559</v>
       </c>
       <c r="B169" t="n">
-        <v>4974.88051028</v>
+        <v>5.55e-06</v>
       </c>
       <c r="C169" t="n">
-        <v>477244482.9054371</v>
+        <v>0.5274611775</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45653</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-349.7431075535696</v>
+        <v>-425.5071209942845</v>
       </c>
       <c r="B170" t="n">
-        <v>-2614.89846927</v>
+        <v>4974.88051028</v>
       </c>
       <c r="C170" t="n">
-        <v>-250340706.4849258</v>
+        <v>477244482.9054372</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-35.43184591642677</v>
+        <v>-349.7431075535702</v>
       </c>
       <c r="B171" t="n">
-        <v>5.47e-06</v>
+        <v>-2614.89846927</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5374170523</v>
+        <v>-250340706.4849259</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>287.7637207878589</v>
+        <v>-35.43184591642729</v>
       </c>
       <c r="B172" t="n">
-        <v>-838.2126990899998</v>
+        <v>5.47e-06</v>
       </c>
       <c r="C172" t="n">
-        <v>-81728510.45013089</v>
+        <v>0.5374170523</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>667.4552983550018</v>
+        <v>287.7637207878583</v>
       </c>
       <c r="B173" t="n">
-        <v>-2368.79658879</v>
+        <v>-838.2126990900003</v>
       </c>
       <c r="C173" t="n">
-        <v>-223945503.9461992</v>
+        <v>-81728510.45013095</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1035.695799562859</v>
+        <v>667.455298355001</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>-2368.79658879</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-223945503.9461991</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45648</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1035.695799798573</v>
+        <v>1035.695799562858</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45647</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="176">
@@ -2900,573 +2900,573 @@
         <v>1035.695799798573</v>
       </c>
       <c r="B176" t="n">
-        <v>-4580.453077400003</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-439065087.0133821</v>
+        <v>0</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45646</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>997.6194607264315</v>
+        <v>1035.695799798573</v>
       </c>
       <c r="B177" t="n">
-        <v>2321.40508564</v>
+        <v>-4580.4530774</v>
       </c>
       <c r="C177" t="n">
-        <v>231879974.6809571</v>
+        <v>-439065087.0133821</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1180.671113675003</v>
+        <v>997.6194607264312</v>
       </c>
       <c r="B178" t="n">
-        <v>5842.077462480002</v>
+        <v>2321.40508564</v>
       </c>
       <c r="C178" t="n">
-        <v>609942458.8724273</v>
+        <v>231879974.680957</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1268.79544633286</v>
+        <v>1180.671113675003</v>
       </c>
       <c r="B179" t="n">
-        <v>1393.387862539998</v>
+        <v>5842.077462480001</v>
       </c>
       <c r="C179" t="n">
-        <v>152190985.1582235</v>
+        <v>609942458.8724275</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1440.289046270003</v>
+        <v>1268.79544633286</v>
       </c>
       <c r="B180" t="n">
-        <v>-10086.4898714</v>
+        <v>1393.387862540003</v>
       </c>
       <c r="C180" t="n">
-        <v>-1070258393.196466</v>
+        <v>152190985.1582233</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2362.917133263575</v>
+        <v>1440.289046270003</v>
       </c>
       <c r="B181" t="n">
-        <v>8.561999999999998e-05</v>
+        <v>-10086.48987139999</v>
       </c>
       <c r="C181" t="n">
-        <v>8.812926348000001</v>
+        <v>-1070258393.196466</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45641</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2362.91712714786</v>
+        <v>2362.917133263574</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>8.561999999999997e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>8.812926348000001</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45640</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2387.158944584289</v>
+        <v>2362.917127147859</v>
       </c>
       <c r="B183" t="n">
-        <v>6035.576698449999</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>610969013.802395</v>
+        <v>0</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45639</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2001.644270070718</v>
+        <v>2387.158944584288</v>
       </c>
       <c r="B184" t="n">
-        <v>1785.45919365</v>
+        <v>6035.576698450001</v>
       </c>
       <c r="C184" t="n">
-        <v>180714080.612584</v>
+        <v>610969013.8023949</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1874.111470524289</v>
+        <v>2001.644270070716</v>
       </c>
       <c r="B185" t="n">
-        <v>4524.737939329999</v>
+        <v>1785.45919365</v>
       </c>
       <c r="C185" t="n">
-        <v>452541454.0455247</v>
+        <v>180714080.612584</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1486.359438862861</v>
+        <v>1874.111470524288</v>
       </c>
       <c r="B186" t="n">
-        <v>4477.469386850001</v>
+        <v>4524.737939329999</v>
       </c>
       <c r="C186" t="n">
-        <v>428413405.335326</v>
+        <v>452541454.0455249</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>959.9652788314319</v>
+        <v>1486.359438862859</v>
       </c>
       <c r="B187" t="n">
-        <v>2786.570428120004</v>
+        <v>4477.469386849996</v>
       </c>
       <c r="C187" t="n">
-        <v>273210710.240793</v>
+        <v>428413405.3353253</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1114.24727849286</v>
+        <v>959.965278831431</v>
       </c>
       <c r="B188" t="n">
-        <v>3.3e-06</v>
+        <v>2786.570428120004</v>
       </c>
       <c r="C188" t="n">
-        <v>0.329621028</v>
+        <v>273210710.2407934</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45634</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1114.247288698574</v>
+        <v>1114.247278492859</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>3.3e-06</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.329621028</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45633</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1118.287589054288</v>
+        <v>1114.247288698573</v>
       </c>
       <c r="B190" t="n">
-        <v>-5113.521824409988</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-505056434.4827855</v>
+        <v>0</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45632</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2209.242707443573</v>
+        <v>1118.287589054288</v>
       </c>
       <c r="B191" t="n">
-        <v>4884.128226920007</v>
+        <v>-5113.521824409981</v>
       </c>
       <c r="C191" t="n">
-        <v>491058641.8488173</v>
+        <v>-505056434.4827846</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2431.442453787859</v>
+        <v>2209.242707443572</v>
       </c>
       <c r="B192" t="n">
-        <v>7075.81811969</v>
+        <v>4884.128226920006</v>
       </c>
       <c r="C192" t="n">
-        <v>678981474.8290401</v>
+        <v>491058641.8488172</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2519.315084845715</v>
+        <v>2431.442453787857</v>
       </c>
       <c r="B193" t="n">
-        <v>3794.298261660001</v>
+        <v>7075.818119690001</v>
       </c>
       <c r="C193" t="n">
-        <v>361668756.1422573</v>
+        <v>678981474.8290401</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2406.686552582144</v>
+        <v>2519.315084845714</v>
       </c>
       <c r="B194" t="n">
-        <v>2830.30334651</v>
+        <v>3794.29826166</v>
       </c>
       <c r="C194" t="n">
-        <v>272749773.2887352</v>
+        <v>361668756.1422573</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2036.268119912144</v>
+        <v>2406.686552582142</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>2830.303346510001</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>272749773.2887351</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45627</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2036.268120902144</v>
+        <v>2036.268119912142</v>
       </c>
       <c r="B196" t="n">
-        <v>339.38544411</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>33033457.7234467</v>
+        <v>0</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45626</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2012.026303465715</v>
+        <v>2036.268120902143</v>
       </c>
       <c r="B197" t="n">
-        <v>638.3712552599998</v>
+        <v>339.38544411</v>
       </c>
       <c r="C197" t="n">
-        <v>62024019.65687901</v>
+        <v>33033457.7234467</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45625</v>
+        <v>45626</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1579.185774013572</v>
+        <v>2012.026303465714</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>638.3712552599995</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>62024019.65687901</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45624</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1962.675490581429</v>
+        <v>1579.185774013571</v>
       </c>
       <c r="B199" t="n">
-        <v>-903.7905039299998</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-84258801.95749643</v>
+        <v>0</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2700.46206043</v>
+        <v>1962.675490581428</v>
       </c>
       <c r="B200" t="n">
-        <v>-2892.04885359</v>
+        <v>-903.7905039300001</v>
       </c>
       <c r="C200" t="n">
-        <v>-267955483.0825064</v>
+        <v>-84258801.95749646</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3996.392305540001</v>
+        <v>2700.462060429999</v>
       </c>
       <c r="B201" t="n">
-        <v>4946.518423379995</v>
+        <v>-2892.048853589999</v>
       </c>
       <c r="C201" t="n">
-        <v>469536876.6987252</v>
+        <v>-267955483.0825067</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3643.069575298573</v>
+        <v>3996.39230554</v>
       </c>
       <c r="B202" t="n">
-        <v>0.00014618</v>
+        <v>4946.518423379994</v>
       </c>
       <c r="C202" t="n">
-        <v>14.3011801622</v>
+        <v>469536876.6987246</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45620</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3643.069564857145</v>
+        <v>3643.069575298571</v>
       </c>
       <c r="B203" t="n">
-        <v>56.56420498000003</v>
+        <v>0.00014618</v>
       </c>
       <c r="C203" t="n">
-        <v>5596091.95544371</v>
+        <v>14.30118016219999</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45619</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3639.02926450143</v>
+        <v>3643.069564857143</v>
       </c>
       <c r="B204" t="n">
-        <v>10159.84983304</v>
+        <v>56.56420498000003</v>
       </c>
       <c r="C204" t="n">
-        <v>1003807119.335651</v>
+        <v>5596091.95544371</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45618</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>4206.927549112144</v>
+        <v>3639.029264501428</v>
       </c>
       <c r="B205" t="n">
-        <v>7994.92467574</v>
+        <v>10159.84983304</v>
       </c>
       <c r="C205" t="n">
-        <v>777918856.5308714</v>
+        <v>1003807119.335652</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>4192.312994612858</v>
+        <v>4206.927549112143</v>
       </c>
       <c r="B206" t="n">
-        <v>8306.034954499997</v>
+        <v>7994.92467574</v>
       </c>
       <c r="C206" t="n">
-        <v>783790932.0669698</v>
+        <v>777918856.5308713</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3568.046628243573</v>
+        <v>4192.312994612857</v>
       </c>
       <c r="B207" t="n">
-        <v>2217.49880997</v>
+        <v>8306.034954500001</v>
       </c>
       <c r="C207" t="n">
-        <v>204500834.1735478</v>
+        <v>783790932.06697</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2428.979946450002</v>
+        <v>3568.046628243571</v>
       </c>
       <c r="B208" t="n">
-        <v>-2355.55471087</v>
+        <v>2217.49880997</v>
       </c>
       <c r="C208" t="n">
-        <v>-213581597.8896706</v>
+        <v>204500834.1735477</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2558.020103873573</v>
+        <v>2428.97994645</v>
       </c>
       <c r="B209" t="n">
-        <v>1.386e-05</v>
+        <v>-2355.554710869999</v>
       </c>
       <c r="C209" t="n">
-        <v>1.2583538856</v>
+        <v>-213581597.8896705</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45613</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2558.020102883573</v>
+        <v>2558.020103873572</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1.386e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1.2583538856</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2558.020102883573</v>
+        <v>2558.020102883572</v>
       </c>
       <c r="B211" t="n">
-        <v>-5421.39615707</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>-484425401.6111135</v>
+        <v>0</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3058.374461900715</v>
+        <v>2558.020102883572</v>
       </c>
       <c r="B212" t="n">
-        <v>5368.856031949999</v>
+        <v>-5421.396157070001</v>
       </c>
       <c r="C212" t="n">
-        <v>481235622.8589927</v>
+        <v>-484425401.6111138</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3532.637326315715</v>
+        <v>3058.374461900714</v>
       </c>
       <c r="B213" t="n">
-        <v>9425.221473949998</v>
+        <v>5368.856031949999</v>
       </c>
       <c r="C213" t="n">
-        <v>865540988.0293053</v>
+        <v>481235622.8589928</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3612.529669427143</v>
+        <v>3532.637326315715</v>
       </c>
       <c r="B214" t="n">
-        <v>15250.97457795</v>
+        <v>9425.221473950001</v>
       </c>
       <c r="C214" t="n">
-        <v>1338184067.234937</v>
+        <v>865540988.0293053</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3024.76134903</v>
+        <v>3612.529669427143</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0001999999997045158</v>
+        <v>15250.97457795</v>
       </c>
       <c r="C215" t="n">
-        <v>16.33913272431612</v>
+        <v>1338184067.234938</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3442.386479976429</v>
+        <v>3024.76134903</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>0.0001999999998361091</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>16.33913274109364</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45606</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="217">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01047912240028381</v>
+        <v>0</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45605</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="218">
@@ -3488,88 +3488,88 @@
         <v>3442.386479976429</v>
       </c>
       <c r="B218" t="n">
-        <v>18110.42581759</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>1380960003.80301</v>
+        <v>0.0104791671037674</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45604</v>
+        <v>45605</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2358.543440058572</v>
+        <v>3442.386479976429</v>
       </c>
       <c r="B219" t="n">
-        <v>7790.32091275</v>
+        <v>18110.42581759</v>
       </c>
       <c r="C219" t="n">
-        <v>586849552.7483768</v>
+        <v>1380960003.803009</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2015.516073712857</v>
+        <v>2358.543440058572</v>
       </c>
       <c r="B220" t="n">
-        <v>-433.6941746699998</v>
+        <v>7790.320912749999</v>
       </c>
       <c r="C220" t="n">
-        <v>-31719654.95791631</v>
+        <v>586849552.7483766</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1956.696030167143</v>
+        <v>2015.516073712857</v>
       </c>
       <c r="B221" t="n">
-        <v>-13729.43473514</v>
+        <v>-433.6941746699999</v>
       </c>
       <c r="C221" t="n">
-        <v>-952637913.2864698</v>
+        <v>-31719654.95791632</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3284.959270661428</v>
+        <v>1956.696030167143</v>
       </c>
       <c r="B222" t="n">
-        <v>-548.9925069400001</v>
+        <v>-13729.43473514</v>
       </c>
       <c r="C222" t="n">
-        <v>-36987617.22083218</v>
+        <v>-952637913.2864697</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3576.204749624285</v>
+        <v>3284.959270661428</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>-548.9925069399999</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>-36987617.22083218</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45599</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3576.20474986</v>
+        <v>3576.204749624285</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -3578,91 +3578,91 @@
         <v>0</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45598</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3576.204769441429</v>
+        <v>3576.20474986</v>
       </c>
       <c r="B225" t="n">
-        <v>1583.56486917</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>108678544.2442145</v>
+        <v>0</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45597</v>
+        <v>45598</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3963.470082492858</v>
+        <v>3576.204769441429</v>
       </c>
       <c r="B226" t="n">
-        <v>12008.53613376</v>
+        <v>1583.564869169999</v>
       </c>
       <c r="C226" t="n">
-        <v>847462352.1069061</v>
+        <v>108678544.2442144</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3586.787572362858</v>
+        <v>3963.470082492858</v>
       </c>
       <c r="B227" t="n">
-        <v>10543.71427751</v>
+        <v>12008.53613376</v>
       </c>
       <c r="C227" t="n">
-        <v>759326194.111881</v>
+        <v>847462352.1069062</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3178.036358242858</v>
+        <v>3586.787572362857</v>
       </c>
       <c r="B228" t="n">
-        <v>7022.21809239</v>
+        <v>10543.71427751</v>
       </c>
       <c r="C228" t="n">
-        <v>506443280.3989527</v>
+        <v>759326194.1118811</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3456.565649816429</v>
+        <v>3178.036358242857</v>
       </c>
       <c r="B229" t="n">
-        <v>5846.752033249999</v>
+        <v>7022.21809239</v>
       </c>
       <c r="C229" t="n">
-        <v>401920631.7675539</v>
+        <v>506443280.3989525</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3038.940504584286</v>
+        <v>3456.565649816429</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>5846.752033249999</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>401920631.7675539</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45592</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="231">
@@ -3676,180 +3676,180 @@
         <v>0</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45591</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3055.101714178572</v>
+        <v>3038.940504584286</v>
       </c>
       <c r="B232" t="n">
-        <v>2936.62325874</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>200184549.5823429</v>
+        <v>0</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45590</v>
+        <v>45591</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2692.557670022143</v>
+        <v>3055.101714178571</v>
       </c>
       <c r="B233" t="n">
-        <v>2987.937783910001</v>
+        <v>2936.62325874</v>
       </c>
       <c r="C233" t="n">
-        <v>202562940.6994096</v>
+        <v>200184549.5823429</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1429.844944577858</v>
+        <v>2692.557670022143</v>
       </c>
       <c r="B234" t="n">
-        <v>-1257.174784310001</v>
+        <v>2987.93778391</v>
       </c>
       <c r="C234" t="n">
-        <v>-82438332.00172363</v>
+        <v>202562940.6994096</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1497.923410847144</v>
+        <v>1429.844944577858</v>
       </c>
       <c r="B235" t="n">
-        <v>4866.25063178</v>
+        <v>-1257.17478431</v>
       </c>
       <c r="C235" t="n">
-        <v>326543727.534154</v>
+        <v>-82438332.00172362</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1415.891425425715</v>
+        <v>1497.923410847144</v>
       </c>
       <c r="B236" t="n">
-        <v>3528.44419854</v>
+        <v>4866.25063178</v>
       </c>
       <c r="C236" t="n">
-        <v>238737363.4732735</v>
+        <v>326543727.534154</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1145.542150902144</v>
+        <v>1415.891425425715</v>
       </c>
       <c r="B237" t="n">
-        <v>3.3e-06</v>
+        <v>3528.44419854</v>
       </c>
       <c r="C237" t="n">
-        <v>0.224982219</v>
+        <v>238737363.4732735</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45585</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1145.54215066643</v>
+        <v>1145.542150902144</v>
       </c>
       <c r="B238" t="n">
-        <v>0.00027414</v>
+        <v>3.3e-06</v>
       </c>
       <c r="C238" t="n">
-        <v>18.743794325</v>
+        <v>0.224982219</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45584</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1145.542131085001</v>
+        <v>1145.54215066643</v>
       </c>
       <c r="B239" t="n">
-        <v>7005.27925189</v>
+        <v>0.00027414</v>
       </c>
       <c r="C239" t="n">
-        <v>479780056.4880769</v>
+        <v>18.743794325</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45583</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>631.1985888907154</v>
+        <v>1145.542131085001</v>
       </c>
       <c r="B240" t="n">
-        <v>6734.980991939999</v>
+        <v>7005.27925189</v>
       </c>
       <c r="C240" t="n">
-        <v>451731157.1325232</v>
+        <v>479780056.4880767</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>41.48217221071549</v>
+        <v>631.1985888907153</v>
       </c>
       <c r="B241" t="n">
-        <v>4821.197279829999</v>
+        <v>6734.98099194</v>
       </c>
       <c r="C241" t="n">
-        <v>326040466.704179</v>
+        <v>451731157.1325233</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-557.0862121014272</v>
+        <v>41.48217221071517</v>
       </c>
       <c r="B242" t="n">
-        <v>10921.62817442</v>
+        <v>4821.19727983</v>
       </c>
       <c r="C242" t="n">
-        <v>719204191.5392934</v>
+        <v>326040466.7041789</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-1286.392346249285</v>
+        <v>-557.0862121014277</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>10921.62817442</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>719204191.5392932</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-767.6279813935706</v>
+        <v>-1286.392346249285</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45578</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="245">
@@ -3866,102 +3866,102 @@
         <v>-767.6279813935706</v>
       </c>
       <c r="B245" t="n">
-        <v>226.25693432</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>14131974.17908705</v>
+        <v>0</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45577</v>
+        <v>45578</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-784.4367331192849</v>
+        <v>-767.6279813935706</v>
       </c>
       <c r="B246" t="n">
-        <v>-2138.993359450001</v>
+        <v>226.25693432</v>
       </c>
       <c r="C246" t="n">
-        <v>-131732088.3988208</v>
+        <v>14131974.17908705</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45576</v>
+        <v>45577</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-238.7790510907136</v>
+        <v>-784.4367331192849</v>
       </c>
       <c r="B247" t="n">
-        <v>-14690.04037231</v>
+        <v>-2138.99335945</v>
       </c>
       <c r="C247" t="n">
-        <v>-879524525.6362287</v>
+        <v>-131732088.3988208</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45575</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>983.2068920514292</v>
+        <v>-238.7790510907133</v>
       </c>
       <c r="B248" t="n">
-        <v>-304.07625654</v>
+        <v>-14690.04037231</v>
       </c>
       <c r="C248" t="n">
-        <v>-18797045.57263825</v>
+        <v>-879524525.6362283</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1156.816938244286</v>
+        <v>983.2068920514295</v>
       </c>
       <c r="B249" t="n">
-        <v>3717.80283588</v>
+        <v>-304.07625654</v>
       </c>
       <c r="C249" t="n">
-        <v>231963344.7384873</v>
+        <v>-18797045.57263825</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>896.3527539650006</v>
+        <v>1156.816938244287</v>
       </c>
       <c r="B250" t="n">
-        <v>-256.4456447900001</v>
+        <v>3717.80283588</v>
       </c>
       <c r="C250" t="n">
-        <v>-16512213.24338452</v>
+        <v>231963344.7384873</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1011.056920924286</v>
+        <v>896.3527539650009</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>-256.4456447900001</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>-16512213.24338451</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45571</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1011.056921314286</v>
+        <v>1011.056920924287</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -3970,91 +3970,91 @@
         <v>0</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45570</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1011.056921314286</v>
+        <v>1011.056921314287</v>
       </c>
       <c r="B253" t="n">
-        <v>-195.5303388299999</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>-11973931.09403594</v>
+        <v>0</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45569</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1211.339447207858</v>
+        <v>1011.056921314287</v>
       </c>
       <c r="B254" t="n">
-        <v>-1521.04884158</v>
+        <v>-195.5303388299998</v>
       </c>
       <c r="C254" t="n">
-        <v>-92248437.22805071</v>
+        <v>-11973931.09403593</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1256.697991249286</v>
+        <v>1211.339447207858</v>
       </c>
       <c r="B255" t="n">
-        <v>-3558.76010054</v>
+        <v>-1521.04884158</v>
       </c>
       <c r="C255" t="n">
-        <v>-218298696.2449632</v>
+        <v>-92248437.22805071</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1710.211381720001</v>
+        <v>1256.697991249287</v>
       </c>
       <c r="B256" t="n">
-        <v>711.3422963499996</v>
+        <v>-3558.760100539999</v>
       </c>
       <c r="C256" t="n">
-        <v>44832448.92670074</v>
+        <v>-218298696.2449632</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1697.275802777144</v>
+        <v>1710.211381720001</v>
       </c>
       <c r="B257" t="n">
-        <v>7262.70110798</v>
+        <v>711.3422963500007</v>
       </c>
       <c r="C257" t="n">
-        <v>463381790.6544092</v>
+        <v>44832448.92670079</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1477.618129620715</v>
+        <v>1697.275802777144</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>7262.701107979998</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>463381790.6544092</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45564</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="259">
@@ -4062,200 +4062,200 @@
         <v>1477.618129620715</v>
       </c>
       <c r="B259" t="n">
-        <v>-9.065589839999999</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>-596668.7479726007</v>
+        <v>0</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1478.265671752144</v>
+        <v>1477.618129620715</v>
       </c>
       <c r="B260" t="n">
-        <v>5500.214188949999</v>
+        <v>-9.065589839999999</v>
       </c>
       <c r="C260" t="n">
-        <v>361958333.3135917</v>
+        <v>-596668.7479726007</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45562</v>
+        <v>45563</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1125.826550273573</v>
+        <v>1478.265671752144</v>
       </c>
       <c r="B261" t="n">
-        <v>2417.76283168</v>
+        <v>5500.214188950002</v>
       </c>
       <c r="C261" t="n">
-        <v>157352991.4951635</v>
+        <v>361958333.3135916</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>904.6280146564296</v>
+        <v>1125.826550273572</v>
       </c>
       <c r="B262" t="n">
-        <v>2126.46439016</v>
+        <v>2417.76283168</v>
       </c>
       <c r="C262" t="n">
-        <v>135794921.9450798</v>
+        <v>157352991.4951635</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>897.1644454092868</v>
+        <v>904.6280146564293</v>
       </c>
       <c r="B263" t="n">
-        <v>71.3042559700001</v>
+        <v>2126.46439016</v>
       </c>
       <c r="C263" t="n">
-        <v>4532128.747436257</v>
+        <v>135794921.9450799</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>901.4273855600011</v>
+        <v>897.1644454092865</v>
       </c>
       <c r="B264" t="n">
-        <v>1349.41269264</v>
+        <v>71.30425596999999</v>
       </c>
       <c r="C264" t="n">
-        <v>85556178.07500924</v>
+        <v>4532128.747436263</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>725.7335461507154</v>
+        <v>901.4273855600006</v>
       </c>
       <c r="B265" t="n">
-        <v>5.46e-06</v>
+        <v>1349.41269264</v>
       </c>
       <c r="C265" t="n">
-        <v>0.344011668</v>
+        <v>85556178.07500926</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45557</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>725.7335457607153</v>
+        <v>725.7335461507149</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>5.46e-06</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>0.344011668</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45556</v>
+        <v>45557</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>725.7335457607153</v>
+        <v>725.7335457607149</v>
       </c>
       <c r="B267" t="n">
-        <v>2608.425023679999</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>164791604.0010278</v>
+        <v>0</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45555</v>
+        <v>45556</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>194.0355568235725</v>
+        <v>725.7335457607149</v>
       </c>
       <c r="B268" t="n">
-        <v>-886.0292249999995</v>
+        <v>2608.42502368</v>
       </c>
       <c r="C268" t="n">
-        <v>-56318021.81121346</v>
+        <v>164791604.0010278</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>226.8688101592868</v>
+        <v>194.035556823572</v>
       </c>
       <c r="B269" t="n">
-        <v>2790.42736605</v>
+        <v>-886.0292249999991</v>
       </c>
       <c r="C269" t="n">
-        <v>166802136.9879289</v>
+        <v>-56318021.81121343</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45553</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-118.9825414878561</v>
+        <v>226.8688101592863</v>
       </c>
       <c r="B270" t="n">
-        <v>530.2441911499999</v>
+        <v>2790.427366049999</v>
       </c>
       <c r="C270" t="n">
-        <v>32240550.89508852</v>
+        <v>166802136.9879289</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45552</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-358.5632755857132</v>
+        <v>-118.9825414878566</v>
       </c>
       <c r="B271" t="n">
-        <v>4187.49368379</v>
+        <v>530.2441911499999</v>
       </c>
       <c r="C271" t="n">
-        <v>244834238.3487858</v>
+        <v>32240550.89508852</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-657.669967284999</v>
+        <v>-358.5632755857137</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>4187.49368379</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>244834238.3487858</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45550</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-657.6699668135705</v>
+        <v>-657.6699672849994</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -4264,96 +4264,96 @@
         <v>0</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45549</v>
+        <v>45550</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-657.6699668135705</v>
+        <v>-657.6699668135709</v>
       </c>
       <c r="B274" t="n">
-        <v>566.0664882499999</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>32961958.67178498</v>
+        <v>0</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45548</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-756.496914669999</v>
+        <v>-657.6699668135709</v>
       </c>
       <c r="B275" t="n">
-        <v>-679.0166669599998</v>
+        <v>566.0664882499998</v>
       </c>
       <c r="C275" t="n">
-        <v>-39106412.48571584</v>
+        <v>32961958.671785</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-812.1676606778562</v>
+        <v>-756.4969146699996</v>
       </c>
       <c r="B276" t="n">
-        <v>2021.9744207</v>
+        <v>-679.01666696</v>
       </c>
       <c r="C276" t="n">
-        <v>114462467.1055077</v>
+        <v>-39106412.48571584</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1114.937340521428</v>
+        <v>-812.1676606778567</v>
       </c>
       <c r="B277" t="n">
-        <v>130.9854180800002</v>
+        <v>2021.9744207</v>
       </c>
       <c r="C277" t="n">
-        <v>7509322.272374894</v>
+        <v>114462467.1055077</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-884.7565190828561</v>
+        <v>-1114.937340521428</v>
       </c>
       <c r="B278" t="n">
-        <v>-1110.30105909</v>
+        <v>130.98541808</v>
       </c>
       <c r="C278" t="n">
-        <v>-61151543.12729253</v>
+        <v>7509322.272374892</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-552.8297111714274</v>
+        <v>-884.7565190828566</v>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>-1110.30105909</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>-61151543.12729252</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45543</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-552.8297111714274</v>
+        <v>-552.829711171428</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
@@ -4362,194 +4362,194 @@
         <v>0</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45542</v>
+        <v>45543</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-552.8297111714274</v>
+        <v>-552.829711171428</v>
       </c>
       <c r="B281" t="n">
-        <v>-4835.34682144</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>-261874841.942754</v>
+        <v>0</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45541</v>
+        <v>45542</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-120.097437372856</v>
+        <v>-552.829711171428</v>
       </c>
       <c r="B282" t="n">
-        <v>-426.3636783000003</v>
+        <v>-4835.346821440001</v>
       </c>
       <c r="C282" t="n">
-        <v>-24149655.43792238</v>
+        <v>-261874841.9427541</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-37.95628399999886</v>
+        <v>-120.0974373728564</v>
       </c>
       <c r="B283" t="n">
-        <v>-2051.49155701</v>
+        <v>-426.3636783000003</v>
       </c>
       <c r="C283" t="n">
-        <v>-117984757.4082282</v>
+        <v>-24149655.43792238</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>214.5062794807154</v>
+        <v>-37.95628399999929</v>
       </c>
       <c r="B284" t="n">
-        <v>-2823.886086219999</v>
+        <v>-2051.49155701</v>
       </c>
       <c r="C284" t="n">
-        <v>-164766544.6729744</v>
+        <v>-117984757.4082282</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45538</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>491.235485147144</v>
+        <v>214.506279480715</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>-2823.88608622</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-164766544.6729744</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45537</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>534.3617478014297</v>
+        <v>491.2354851471436</v>
       </c>
       <c r="B286" t="n">
-        <v>6.6e-06</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3846219300000001</v>
+        <v>0</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45536</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>534.3617473300011</v>
+        <v>534.3617478014293</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>6.6e-06</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>0.3846219300000001</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45535</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>534.3617473300011</v>
+        <v>534.3617473300008</v>
       </c>
       <c r="B288" t="n">
-        <v>-817.5107817400001</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>-48534164.72685146</v>
+        <v>0</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45534</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>598.2938762542868</v>
+        <v>534.3617473300008</v>
       </c>
       <c r="B289" t="n">
-        <v>-1458.40711107</v>
+        <v>-817.5107817399999</v>
       </c>
       <c r="C289" t="n">
-        <v>-88386112.53397566</v>
+        <v>-48534164.72685145</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>623.6402095935725</v>
+        <v>598.2938762542864</v>
       </c>
       <c r="B290" t="n">
-        <v>-2216.80109711</v>
+        <v>-1458.40711107</v>
       </c>
       <c r="C290" t="n">
-        <v>-131243413.6928432</v>
+        <v>-88386112.53397569</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>827.8814680942868</v>
+        <v>623.6402095935721</v>
       </c>
       <c r="B291" t="n">
-        <v>3353.51691822</v>
+        <v>-2216.80109711</v>
       </c>
       <c r="C291" t="n">
-        <v>207354638.4556677</v>
+        <v>-131243413.6928432</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>622.0439646685725</v>
+        <v>827.8814680942866</v>
       </c>
       <c r="B292" t="n">
-        <v>3536.674251670001</v>
+        <v>3353.516918220001</v>
       </c>
       <c r="C292" t="n">
-        <v>225158384.1631652</v>
+        <v>207354638.4556677</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45530</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>287.1528446657152</v>
+        <v>622.0439646685721</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>3536.674251670001</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>225158384.1631653</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45529</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>287.1528446657152</v>
+        <v>287.152844665715</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -4558,91 +4558,91 @@
         <v>0</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45528</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>287.1528446657152</v>
+        <v>287.152844665715</v>
       </c>
       <c r="B295" t="n">
-        <v>1222.90501174</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>76140054.88308148</v>
+        <v>0</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45527</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>294.3274809371438</v>
+        <v>287.152844665715</v>
       </c>
       <c r="B296" t="n">
-        <v>723.6124689200001</v>
+        <v>1222.90501174</v>
       </c>
       <c r="C296" t="n">
-        <v>44013882.30295408</v>
+        <v>76140054.8830815</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>438.5411212457153</v>
+        <v>294.3274809371436</v>
       </c>
       <c r="B297" t="n">
-        <v>1482.98433172</v>
+        <v>723.61246892</v>
       </c>
       <c r="C297" t="n">
-        <v>88118834.13489236</v>
+        <v>44013882.30295408</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>222.5032953671438</v>
+        <v>438.541121245715</v>
       </c>
       <c r="B298" t="n">
-        <v>1050.32279311</v>
+        <v>1482.98433172</v>
       </c>
       <c r="C298" t="n">
-        <v>61805480.35446479</v>
+        <v>88118834.13489234</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-0.5517351207133417</v>
+        <v>222.5032953671436</v>
       </c>
       <c r="B299" t="n">
-        <v>603.7676771599999</v>
+        <v>1050.32279311</v>
       </c>
       <c r="C299" t="n">
-        <v>34608370.50746363</v>
+        <v>61805480.3544648</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-1242.921712655713</v>
+        <v>-0.5517351207136098</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>603.7676771599998</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>34608370.50746363</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45522</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="301">
@@ -4656,96 +4656,96 @@
         <v>0</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45521</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-1242.921709145714</v>
+        <v>-1242.921712655713</v>
       </c>
       <c r="B302" t="n">
-        <v>77.53902319999995</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>4640503.601009729</v>
+        <v>0</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45520</v>
+        <v>45521</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-1113.999003307142</v>
+        <v>-1242.921709145714</v>
       </c>
       <c r="B303" t="n">
-        <v>-1103.55844432</v>
+        <v>77.53902319999996</v>
       </c>
       <c r="C303" t="n">
-        <v>-65158320.4914653</v>
+        <v>4640503.601009733</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45519</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-1004.465005155713</v>
+        <v>-1113.999003307142</v>
       </c>
       <c r="B304" t="n">
-        <v>642.5765219</v>
+        <v>-1103.55844432</v>
       </c>
       <c r="C304" t="n">
-        <v>37423756.2472754</v>
+        <v>-65158320.49146534</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45518</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>679.1158072700015</v>
+        <v>-1004.465005155713</v>
       </c>
       <c r="B305" t="n">
-        <v>471.79187026</v>
+        <v>642.5765218999999</v>
       </c>
       <c r="C305" t="n">
-        <v>28165487.37136899</v>
+        <v>37423756.2472754</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-975.9685042692847</v>
+        <v>679.1158072700002</v>
       </c>
       <c r="B306" t="n">
-        <v>-1151.80142837</v>
+        <v>471.79187026</v>
       </c>
       <c r="C306" t="n">
-        <v>-68856392.77073759</v>
+        <v>28165487.37136899</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-851.3322417607134</v>
+        <v>-975.9685042692846</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>-1151.80142837</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>-68856392.77073757</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45515</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-851.3322417607134</v>
+        <v>-851.3322417607131</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -4754,91 +4754,91 @@
         <v>0</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45514</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-851.3322417607134</v>
+        <v>-851.3322417607131</v>
       </c>
       <c r="B309" t="n">
-        <v>1323.349919540001</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>78970242.82617132</v>
+        <v>0</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45513</v>
+        <v>45514</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-899.4012439857133</v>
+        <v>-851.3322417607131</v>
       </c>
       <c r="B310" t="n">
-        <v>2742.60343324</v>
+        <v>1323.349919540001</v>
       </c>
       <c r="C310" t="n">
-        <v>164579510.3994095</v>
+        <v>78970242.82617134</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-1047.280542851428</v>
+        <v>-899.4012439857131</v>
       </c>
       <c r="B311" t="n">
-        <v>-1541.54523058</v>
+        <v>2742.60343324</v>
       </c>
       <c r="C311" t="n">
-        <v>-87490326.07164595</v>
+        <v>164579510.3994095</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-1021.923881584285</v>
+        <v>-1047.280542851427</v>
       </c>
       <c r="B312" t="n">
-        <v>-2072.44763372</v>
+        <v>-1541.54523058</v>
       </c>
       <c r="C312" t="n">
-        <v>-115807243.5324528</v>
+        <v>-87490326.07164589</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-322.0145777092847</v>
+        <v>-1021.923881584284</v>
       </c>
       <c r="B313" t="n">
-        <v>-16789.41200833</v>
+        <v>-2072.44763372</v>
       </c>
       <c r="C313" t="n">
-        <v>-906549820.031294</v>
+        <v>-115807243.5324528</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45509</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1274.956701656429</v>
+        <v>-322.0145777092844</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>-16789.41200833</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>-906549820.031294</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45508</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="315">
@@ -4846,102 +4846,102 @@
         <v>1274.956701656429</v>
       </c>
       <c r="B315" t="n">
-        <v>4.913999999999999e-05</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>2.9935760946</v>
+        <v>0</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45507</v>
+        <v>45508</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1274.95669814643</v>
+        <v>1274.956701656429</v>
       </c>
       <c r="B316" t="n">
-        <v>1882.456904940001</v>
+        <v>4.913999999999999e-05</v>
       </c>
       <c r="C316" t="n">
-        <v>116955281.2762715</v>
+        <v>2.9935760946</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45506</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1198.387134993572</v>
+        <v>1274.95669814643</v>
       </c>
       <c r="B317" t="n">
-        <v>429.9175298</v>
+        <v>1882.45690494</v>
       </c>
       <c r="C317" t="n">
-        <v>27146315.27211448</v>
+        <v>116955281.2762715</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1227.642610375001</v>
+        <v>1198.387134993573</v>
       </c>
       <c r="B318" t="n">
-        <v>24212.70789586001</v>
+        <v>429.9175298</v>
       </c>
       <c r="C318" t="n">
-        <v>1600955849.400584</v>
+        <v>27146315.27211447</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-48.61335216214268</v>
+        <v>1227.642610375001</v>
       </c>
       <c r="B319" t="n">
-        <v>-22699.38849129001</v>
+        <v>24212.70789585999</v>
       </c>
       <c r="C319" t="n">
-        <v>-1507086369.869838</v>
+        <v>1600955849.400584</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1819.271627639286</v>
+        <v>-48.61335216214138</v>
       </c>
       <c r="B320" t="n">
-        <v>593.1062467499999</v>
+        <v>-22699.38849128999</v>
       </c>
       <c r="C320" t="n">
-        <v>40100832.85970547</v>
+        <v>-1507086369.869838</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2145.017247681429</v>
+        <v>1819.271627639286</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>593.1062467499999</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>40100832.85970546</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45501</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2145.017248461429</v>
+        <v>2145.017247681429</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45500</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="323">
@@ -4958,83 +4958,83 @@
         <v>2145.017248461429</v>
       </c>
       <c r="B323" t="n">
-        <v>650.3838883899999</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>44176240.63512379</v>
+        <v>0</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45499</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2204.467585731429</v>
+        <v>2145.017248461429</v>
       </c>
       <c r="B324" t="n">
-        <v>672.2932491199999</v>
+        <v>650.3838883900002</v>
       </c>
       <c r="C324" t="n">
-        <v>43917363.88074005</v>
+        <v>44176240.6351238</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2323.817644387143</v>
+        <v>2204.467585731429</v>
       </c>
       <c r="B325" t="n">
-        <v>-1186.55197284</v>
+        <v>672.2932491199997</v>
       </c>
       <c r="C325" t="n">
-        <v>-78689091.65850565</v>
+        <v>43917363.88074005</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2676.065215346429</v>
+        <v>2323.817644387143</v>
       </c>
       <c r="B326" t="n">
-        <v>7726.28262053</v>
+        <v>-1186.55197284</v>
       </c>
       <c r="C326" t="n">
-        <v>514789999.5998478</v>
+        <v>-78689091.65850562</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2502.076947268572</v>
+        <v>2676.065215346429</v>
       </c>
       <c r="B327" t="n">
-        <v>5568.185902789998</v>
+        <v>7726.282620530001</v>
       </c>
       <c r="C327" t="n">
-        <v>374809854.0133414</v>
+        <v>514789999.5998477</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2264.682286319286</v>
+        <v>2502.076947268572</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>5568.185902789999</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>374809854.0133414</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="329">
@@ -5048,390 +5048,390 @@
         <v>0</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2264.682422819286</v>
+        <v>2264.682286319286</v>
       </c>
       <c r="B330" t="n">
-        <v>810.4830207999989</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>56728746.48002973</v>
+        <v>0</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2172.411245172857</v>
+        <v>2264.682422819286</v>
       </c>
       <c r="B331" t="n">
-        <v>839.4941851399997</v>
+        <v>810.4830207999994</v>
       </c>
       <c r="C331" t="n">
-        <v>52648200.77269299</v>
+        <v>56728746.48002977</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2112.447374805714</v>
+        <v>2172.411245172858</v>
       </c>
       <c r="B332" t="n">
-        <v>6345.12442034</v>
+        <v>839.4941851399999</v>
       </c>
       <c r="C332" t="n">
-        <v>409231283.5442613</v>
+        <v>52648200.77269299</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1675.137123570714</v>
+        <v>2112.447374805715</v>
       </c>
       <c r="B333" t="n">
-        <v>3451.00122593</v>
+        <v>6345.124420339999</v>
       </c>
       <c r="C333" t="n">
-        <v>220315256.8791863</v>
+        <v>409231283.5442615</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1571.152316908572</v>
+        <v>1675.137123570715</v>
       </c>
       <c r="B334" t="n">
-        <v>5153.544927340001</v>
+        <v>3451.00122593</v>
       </c>
       <c r="C334" t="n">
-        <v>324310300.6256815</v>
+        <v>220315256.8791863</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1314.835769639286</v>
+        <v>1571.152316908572</v>
       </c>
       <c r="B335" t="n">
-        <v>1.092e-05</v>
+        <v>5153.544927340001</v>
       </c>
       <c r="C335" t="n">
-        <v>0.6541740659999999</v>
+        <v>324310300.6256815</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1315.713526745714</v>
+        <v>1314.835769639287</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1.092e-05</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>0.6541740659999999</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1315.713533888571</v>
+        <v>1315.713526745715</v>
       </c>
       <c r="B337" t="n">
-        <v>1482.68861017</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>85849428.23414195</v>
+        <v>0</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1218.028877353571</v>
+        <v>1315.713533888572</v>
       </c>
       <c r="B338" t="n">
-        <v>2343.194070300001</v>
+        <v>1482.68861017</v>
       </c>
       <c r="C338" t="n">
-        <v>135455189.8456566</v>
+        <v>85849428.23414201</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1055.686899044286</v>
+        <v>1218.028877353572</v>
       </c>
       <c r="B339" t="n">
-        <v>3744.91402059</v>
+        <v>2343.1940703</v>
       </c>
       <c r="C339" t="n">
-        <v>217353923.0879007</v>
+        <v>135455189.8456566</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>826.416764075714</v>
+        <v>1055.686899044286</v>
       </c>
       <c r="B340" t="n">
-        <v>5290.44686744</v>
+        <v>3744.91402059</v>
       </c>
       <c r="C340" t="n">
-        <v>304007695.1801498</v>
+        <v>217353923.0879007</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>293.3911733871427</v>
+        <v>826.4167640757148</v>
       </c>
       <c r="B341" t="n">
-        <v>2244.660649500001</v>
+        <v>5290.44686744</v>
       </c>
       <c r="C341" t="n">
-        <v>128572544.0456094</v>
+        <v>304007695.1801498</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.00213848928549</v>
+        <v>293.3911733871433</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>2244.6606495</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>128572544.0456094</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45480</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.00213848928549</v>
+        <v>33.00213848928616</v>
       </c>
       <c r="B343" t="n">
-        <v>0.001911000000000001</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>111.1363834854</v>
+        <v>0</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.00200198928548</v>
+        <v>33.00213848928616</v>
       </c>
       <c r="B344" t="n">
-        <v>-481.3134662500001</v>
+        <v>0.001911000000000001</v>
       </c>
       <c r="C344" t="n">
-        <v>-26358852.79738854</v>
+        <v>111.1363834854</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-6.491019820000214</v>
+        <v>33.00200198928616</v>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>-481.3134662499995</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>-26358852.79738851</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-742.7997890450002</v>
+        <v>-6.491019819999565</v>
       </c>
       <c r="B346" t="n">
-        <v>222.7809030500003</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>13459029.98116016</v>
+        <v>0</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-758.7127104557146</v>
+        <v>-742.7997890449996</v>
       </c>
       <c r="B347" t="n">
-        <v>1995.21393266</v>
+        <v>222.7809030500001</v>
       </c>
       <c r="C347" t="n">
-        <v>124936822.6139392</v>
+        <v>13459029.98116018</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-954.8190251850003</v>
+        <v>-758.7127104557138</v>
       </c>
       <c r="B348" t="n">
-        <v>1565.11326557</v>
+        <v>1995.21393266</v>
       </c>
       <c r="C348" t="n">
-        <v>98905199.99950087</v>
+        <v>124936822.6139392</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45474</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-1124.108865801429</v>
+        <v>-954.8190251849994</v>
       </c>
       <c r="B349" t="n">
-        <v>12.28861040999996</v>
+        <v>1565.11326557</v>
       </c>
       <c r="C349" t="n">
-        <v>761135.5103381741</v>
+        <v>98905199.99950087</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45473</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-1124.986623687857</v>
+        <v>-1124.108865801428</v>
       </c>
       <c r="B350" t="n">
-        <v>0.0001</v>
+        <v>12.28861040999996</v>
       </c>
       <c r="C350" t="n">
-        <v>6.102654</v>
+        <v>761135.5103381741</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45472</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-1125.980361206429</v>
+        <v>-1124.986623687857</v>
       </c>
       <c r="B351" t="n">
-        <v>115.1034186799998</v>
+        <v>0.0001</v>
       </c>
       <c r="C351" t="n">
-        <v>6931403.122003425</v>
+        <v>6.102654</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45471</v>
+        <v>45472</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-1322.449778135715</v>
+        <v>-1125.980361206428</v>
       </c>
       <c r="B352" t="n">
-        <v>70.40637396999998</v>
+        <v>115.1034186799997</v>
       </c>
       <c r="C352" t="n">
-        <v>4138260.367752448</v>
+        <v>6931403.122003418</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-1234.013433814286</v>
+        <v>-1322.449778135714</v>
       </c>
       <c r="B353" t="n">
-        <v>535.1321310299996</v>
+        <v>70.40637397000006</v>
       </c>
       <c r="C353" t="n">
-        <v>32859795.48409951</v>
+        <v>4138260.36775245</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-1472.880400685</v>
+        <v>-1234.013433814285</v>
       </c>
       <c r="B354" t="n">
-        <v>-2171.9114022</v>
+        <v>535.1321310299995</v>
       </c>
       <c r="C354" t="n">
-        <v>-133099294.6410732</v>
+        <v>32859795.48409951</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-1411.415124106429</v>
+        <v>-1472.880400684999</v>
       </c>
       <c r="B355" t="n">
-        <v>-1400.78583907</v>
+        <v>-2171.9114022</v>
       </c>
       <c r="C355" t="n">
-        <v>-85412127.47835538</v>
+        <v>-133099294.6410732</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1175.168254452857</v>
+        <v>-1411.415124106428</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>-1400.785839070001</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>-85412127.47835538</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45466</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-1175.168254452857</v>
+        <v>-1175.168254452856</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -5440,194 +5440,194 @@
         <v>0</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45465</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-1175.168254452857</v>
+        <v>-1175.168254452856</v>
       </c>
       <c r="B358" t="n">
-        <v>-1034.21577158</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>-65944798.34266558</v>
+        <v>0</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45464</v>
+        <v>45465</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-859.6673125571433</v>
+        <v>-1175.168254452856</v>
       </c>
       <c r="B359" t="n">
-        <v>-10308.32276915</v>
+        <v>-1034.21577158</v>
       </c>
       <c r="C359" t="n">
-        <v>-670833028.1361527</v>
+        <v>-65944798.3426656</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>363.6163185864281</v>
+        <v>-859.6673125571421</v>
       </c>
       <c r="B360" t="n">
-        <v>3.3e-06</v>
+        <v>-10308.32276915</v>
       </c>
       <c r="C360" t="n">
-        <v>0.215152443</v>
+        <v>-670833028.1361525</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45462</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1262.564308722142</v>
+        <v>363.6163185864294</v>
       </c>
       <c r="B361" t="n">
-        <v>-750.2744735500003</v>
+        <v>3.3e-06</v>
       </c>
       <c r="C361" t="n">
-        <v>-48620168.99007507</v>
+        <v>0.215152443</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45461</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1424.812512977142</v>
+        <v>1262.564308722144</v>
       </c>
       <c r="B362" t="n">
-        <v>-804.94450306</v>
+        <v>-750.27447355</v>
       </c>
       <c r="C362" t="n">
-        <v>-52741522.78001761</v>
+        <v>-48620168.99007507</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1542.020224078571</v>
+        <v>1424.812512977144</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>-804.9445030600001</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>-52741522.78001761</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45459</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1542.020224078571</v>
+        <v>1542.020224078572</v>
       </c>
       <c r="B364" t="n">
-        <v>-13.91222526000013</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>-920760.8475530297</v>
+        <v>0</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45458</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1543.013954454285</v>
+        <v>1542.020224078572</v>
       </c>
       <c r="B365" t="n">
-        <v>-2635.46841833</v>
+        <v>-13.91222526000013</v>
       </c>
       <c r="C365" t="n">
-        <v>-175644908.6526374</v>
+        <v>-920760.8475530371</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45457</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1763.837948972856</v>
+        <v>1543.013954454287</v>
       </c>
       <c r="B366" t="n">
-        <v>1308.51519447</v>
+        <v>-2635.46841833</v>
       </c>
       <c r="C366" t="n">
-        <v>88138009.2482755</v>
+        <v>-175644908.6526374</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1715.224466552142</v>
+        <v>1763.837948972858</v>
       </c>
       <c r="B367" t="n">
-        <v>-2809.00540516</v>
+        <v>1308.51519447</v>
       </c>
       <c r="C367" t="n">
-        <v>-195408674.1071072</v>
+        <v>88138009.2482755</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1933.312313277142</v>
+        <v>1715.224466552144</v>
       </c>
       <c r="B368" t="n">
-        <v>-1311.3975301</v>
+        <v>-2809.00540516</v>
       </c>
       <c r="C368" t="n">
-        <v>-87943166.76116736</v>
+        <v>-195408674.1071073</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2269.298660400714</v>
+        <v>1933.312313277144</v>
       </c>
       <c r="B369" t="n">
-        <v>1906.67033608</v>
+        <v>-1311.3975301</v>
       </c>
       <c r="C369" t="n">
-        <v>133166711.7980027</v>
+        <v>-87943166.76116735</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2139.726753534285</v>
+        <v>2269.298660400715</v>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1906.67033608</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>133166711.7980027</v>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45452</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2139.726753534285</v>
+        <v>2139.726753534287</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -5636,96 +5636,96 @@
         <v>0</v>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45451</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2139.726754314285</v>
+        <v>2139.726753534287</v>
       </c>
       <c r="B372" t="n">
-        <v>3382.797414959998</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>239014085.4252788</v>
+        <v>0</v>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45450</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2028.857964769999</v>
+        <v>2139.726754314287</v>
       </c>
       <c r="B373" t="n">
-        <v>6817.648066860001</v>
+        <v>3382.797414959999</v>
       </c>
       <c r="C373" t="n">
-        <v>484901791.2458653</v>
+        <v>239014085.4252789</v>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>864.4464882514276</v>
+        <v>2028.857964770001</v>
       </c>
       <c r="B374" t="n">
-        <v>12585.2718652</v>
+        <v>6817.64806686</v>
       </c>
       <c r="C374" t="n">
-        <v>895290426.8626802</v>
+        <v>484901791.2458654</v>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>285.470626674285</v>
+        <v>864.4464882514296</v>
       </c>
       <c r="B375" t="n">
-        <v>1521.20038602</v>
+        <v>12585.2718652</v>
       </c>
       <c r="C375" t="n">
-        <v>105799650.9883126</v>
+        <v>895290426.8626801</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>414.4632004435707</v>
+        <v>285.4706266742867</v>
       </c>
       <c r="B376" t="n">
-        <v>835.9634523600008</v>
+        <v>1521.20038602</v>
       </c>
       <c r="C376" t="n">
-        <v>57019817.47465293</v>
+        <v>105799650.9883126</v>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>581.265447642142</v>
+        <v>414.4632004435724</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>835.9634523599997</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>57019817.47465298</v>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45445</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>581.265448242142</v>
+        <v>581.2654476421438</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -5734,292 +5734,292 @@
         <v>0</v>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45444</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>581.265448242142</v>
+        <v>581.2654482421439</v>
       </c>
       <c r="B379" t="n">
-        <v>456.0675049300001</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>32418415.53613874</v>
+        <v>0</v>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45443</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>797.4939424557135</v>
+        <v>581.2654482421439</v>
       </c>
       <c r="B380" t="n">
-        <v>627.92644058</v>
+        <v>456.0675049300002</v>
       </c>
       <c r="C380" t="n">
-        <v>43128989.59319783</v>
+        <v>32418415.53613872</v>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1012.124312801428</v>
+        <v>797.4939424557153</v>
       </c>
       <c r="B381" t="n">
-        <v>244.2244489899999</v>
+        <v>627.9264405799997</v>
       </c>
       <c r="C381" t="n">
-        <v>16010528.10398005</v>
+        <v>43128989.59319784</v>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1115.869653379285</v>
+        <v>1012.12431280143</v>
       </c>
       <c r="B382" t="n">
-        <v>3392.41132963</v>
+        <v>244.2244489899999</v>
       </c>
       <c r="C382" t="n">
-        <v>231754398.703239</v>
+        <v>16010528.10398007</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>930.5339966014278</v>
+        <v>1115.869653379287</v>
       </c>
       <c r="B383" t="n">
-        <v>92.66363994999999</v>
+        <v>3392.411329630001</v>
       </c>
       <c r="C383" t="n">
-        <v>6358002.606484598</v>
+        <v>231754398.703239</v>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45439</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>796.0670345378563</v>
+        <v>930.5339966014296</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>92.66363994999999</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>6358002.606484598</v>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45438</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>796.0670345378563</v>
+        <v>796.0670345378581</v>
       </c>
       <c r="B385" t="n">
-        <v>1.092e-05</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0.7509169668</v>
+        <v>0</v>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45437</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>796.0670337578564</v>
+        <v>796.0670345378581</v>
       </c>
       <c r="B386" t="n">
-        <v>1830.634361339998</v>
+        <v>1.092e-05</v>
       </c>
       <c r="C386" t="n">
-        <v>124873974.464636</v>
+        <v>0.7509169668</v>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45436</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>696.2936440414279</v>
+        <v>796.0670337578582</v>
       </c>
       <c r="B387" t="n">
-        <v>-9484.112604400001</v>
+        <v>1830.634361339999</v>
       </c>
       <c r="C387" t="n">
-        <v>-639901534.0029404</v>
+        <v>124873974.4646359</v>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1354.548130882142</v>
+        <v>696.2936440414297</v>
       </c>
       <c r="B388" t="n">
-        <v>4479.609803120001</v>
+        <v>-9484.112604400001</v>
       </c>
       <c r="C388" t="n">
-        <v>312589647.3873347</v>
+        <v>-639901534.0029405</v>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>189.5849361535707</v>
+        <v>1354.548130882144</v>
       </c>
       <c r="B389" t="n">
-        <v>3327.09641879</v>
+        <v>4479.60980312</v>
       </c>
       <c r="C389" t="n">
-        <v>233739576.6837451</v>
+        <v>312589647.3873348</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>192.2859827778564</v>
+        <v>189.5849361535728</v>
       </c>
       <c r="B390" t="n">
-        <v>3171.19491314</v>
+        <v>3327.09641879</v>
       </c>
       <c r="C390" t="n">
-        <v>213233600.0753404</v>
+        <v>233739576.6837451</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>302.5172058264278</v>
+        <v>192.2859827778585</v>
       </c>
       <c r="B391" t="n">
-        <v>8.400000000000001e-06</v>
+        <v>3171.194913140001</v>
       </c>
       <c r="C391" t="n">
-        <v>0.564264792</v>
+        <v>213233600.0753403</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45431</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>302.5172052264278</v>
+        <v>302.5172058264299</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>8.400000000000001e-06</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>0.564264792</v>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45430</v>
+        <v>45431</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>302.4943434592849</v>
+        <v>302.5172052264298</v>
       </c>
       <c r="B393" t="n">
-        <v>3483.26642392</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>232246014.1481357</v>
+        <v>0</v>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45429</v>
+        <v>45430</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>20.47063282928489</v>
+        <v>302.494343459287</v>
       </c>
       <c r="B394" t="n">
-        <v>3632.75162542</v>
+        <v>3483.26642392</v>
       </c>
       <c r="C394" t="n">
-        <v>240157654.2338996</v>
+        <v>232246014.1481356</v>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-703.7120118757151</v>
+        <v>20.47063282928694</v>
       </c>
       <c r="B395" t="n">
-        <v>1696.65921708</v>
+        <v>3632.75162542</v>
       </c>
       <c r="C395" t="n">
-        <v>110368706.0704766</v>
+        <v>240157654.2338996</v>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-954.5048926721438</v>
+        <v>-703.7120118757131</v>
       </c>
       <c r="B396" t="n">
-        <v>797.7121347399999</v>
+        <v>1696.65921708</v>
       </c>
       <c r="C396" t="n">
-        <v>49069245.78656486</v>
+        <v>110368706.0704765</v>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-1168.005956103572</v>
+        <v>-954.5048926721418</v>
       </c>
       <c r="B397" t="n">
-        <v>-1789.87382894</v>
+        <v>797.7121347399999</v>
       </c>
       <c r="C397" t="n">
-        <v>-112566247.0850728</v>
+        <v>49069245.78656485</v>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-1108.33326759643</v>
+        <v>-1168.00595610357</v>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>-1789.873828940001</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>-112566247.0850728</v>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45424</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-1108.333266426429</v>
+        <v>-1108.333267596427</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -6028,488 +6028,488 @@
         <v>0</v>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45423</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>-1108.33326525643</v>
+        <v>-1108.333266426427</v>
       </c>
       <c r="B400" t="n">
-        <v>433.80690531</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>26558748.58594943</v>
+        <v>0</v>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45422</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-1321.613021340001</v>
+        <v>-1108.333265256427</v>
       </c>
       <c r="B401" t="n">
-        <v>-268.5497886300001</v>
+        <v>433.80690531</v>
       </c>
       <c r="C401" t="n">
-        <v>-16527124.11270952</v>
+        <v>26558748.58594943</v>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45421</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-1434.948985907858</v>
+        <v>-1321.613021339999</v>
       </c>
       <c r="B402" t="n">
-        <v>-11829.87492308</v>
+        <v>-268.5497886300002</v>
       </c>
       <c r="C402" t="n">
-        <v>-737242254.8037211</v>
+        <v>-16527124.11270952</v>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45420</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-661.8097537664298</v>
+        <v>-1434.948985907856</v>
       </c>
       <c r="B403" t="n">
-        <v>3364.91107153</v>
+        <v>-11829.87492308</v>
       </c>
       <c r="C403" t="n">
-        <v>213086734.0620539</v>
+        <v>-737242254.803721</v>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-863.3319718685726</v>
+        <v>-661.8097537664277</v>
       </c>
       <c r="B404" t="n">
-        <v>4714.43203582</v>
+        <v>3364.91107153</v>
       </c>
       <c r="C404" t="n">
-        <v>301322525.6473088</v>
+        <v>213086734.0620539</v>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45418</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-1100.624655702144</v>
+        <v>-863.3319718685705</v>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>4714.432035819999</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>301322525.6473088</v>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45417</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-1100.624653165001</v>
+        <v>-1100.624655702142</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.32006474</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>-20396.813695691</v>
+        <v>0</v>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45416</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-1100.601788860715</v>
+        <v>-1100.624653164999</v>
       </c>
       <c r="B407" t="n">
-        <v>-465.0655249000002</v>
+        <v>-0.32006474</v>
       </c>
       <c r="C407" t="n">
-        <v>-28048993.14919325</v>
+        <v>-20396.813695691</v>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45415</v>
+        <v>45416</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-1066.857224387144</v>
+        <v>-1100.601788860713</v>
       </c>
       <c r="B408" t="n">
-        <v>-6505.805400450001</v>
+        <v>-465.0655249000002</v>
       </c>
       <c r="C408" t="n">
-        <v>-380973206.8403209</v>
+        <v>-28048993.14919323</v>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-770.1668140492867</v>
+        <v>-1066.857224387142</v>
       </c>
       <c r="B409" t="n">
-        <v>-1814.441114070001</v>
+        <v>-6505.805400450001</v>
       </c>
       <c r="C409" t="n">
-        <v>-104747485.7680881</v>
+        <v>-380973206.840321</v>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45413</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-706.6624398585724</v>
+        <v>-770.1668140492844</v>
       </c>
       <c r="B410" t="n">
-        <v>-2191.302753299999</v>
+        <v>-1814.44111407</v>
       </c>
       <c r="C410" t="n">
-        <v>-133962970.7278754</v>
+        <v>-104747485.7680881</v>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45412</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-769.6007054742865</v>
+        <v>-706.66243985857</v>
       </c>
       <c r="B411" t="n">
-        <v>-954.45618984</v>
+        <v>-2191.302753299998</v>
       </c>
       <c r="C411" t="n">
-        <v>-59516585.7025501</v>
+        <v>-133962970.7278754</v>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45411</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-697.1104129171435</v>
+        <v>-769.6007054742843</v>
       </c>
       <c r="B412" t="n">
-        <v>1.638e-05</v>
+        <v>-954.45618984</v>
       </c>
       <c r="C412" t="n">
-        <v>1.0429616106</v>
+        <v>-59516585.70255011</v>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45410</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-697.1104133071436</v>
+        <v>-697.1104129171414</v>
       </c>
       <c r="B413" t="n">
         <v>1.638e-05</v>
       </c>
       <c r="C413" t="n">
-        <v>1.0322898768</v>
+        <v>1.0429616106</v>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45409</v>
+        <v>45410</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-697.1104138514293</v>
+        <v>-697.1104133071414</v>
       </c>
       <c r="B414" t="n">
-        <v>-2552.10967986</v>
+        <v>1.638e-05</v>
       </c>
       <c r="C414" t="n">
-        <v>-163320875.5480411</v>
+        <v>1.0322898768</v>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45408</v>
+        <v>45409</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-338.9813579092865</v>
+        <v>-697.1104138514271</v>
       </c>
       <c r="B415" t="n">
-        <v>-1855.25329258</v>
+        <v>-2552.109679860001</v>
       </c>
       <c r="C415" t="n">
-        <v>-117729148.6218264</v>
+        <v>-163320875.548041</v>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-167.6534560514293</v>
+        <v>-338.9813579092842</v>
       </c>
       <c r="B416" t="n">
-        <v>-1005.9256731</v>
+        <v>-1855.25329258</v>
       </c>
       <c r="C416" t="n">
-        <v>-66056612.44416186</v>
+        <v>-117729148.6218263</v>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>-151.3780157557151</v>
+        <v>-167.6534560514271</v>
       </c>
       <c r="B417" t="n">
-        <v>543.6000180999997</v>
+        <v>-1005.9256731</v>
       </c>
       <c r="C417" t="n">
-        <v>36675225.15711426</v>
+        <v>-66056612.44416191</v>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>-408.7462812521437</v>
+        <v>-151.3780157557128</v>
       </c>
       <c r="B418" t="n">
-        <v>1392.33446215</v>
+        <v>543.6000180999999</v>
       </c>
       <c r="C418" t="n">
-        <v>92175098.8210679</v>
+        <v>36675225.15711427</v>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>-197.5933520671437</v>
+        <v>-408.7462812521414</v>
       </c>
       <c r="B419" t="n">
-        <v>3.552e-05</v>
+        <v>1392.33446215</v>
       </c>
       <c r="C419" t="n">
-        <v>2.3033449272</v>
+        <v>92175098.82106784</v>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45403</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-197.5933546042866</v>
+        <v>-197.5933520671414</v>
       </c>
       <c r="B420" t="n">
         <v>3.552e-05</v>
       </c>
       <c r="C420" t="n">
-        <v>2.3046850968</v>
+        <v>2.3033449272</v>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45402</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-197.5933571414294</v>
+        <v>-197.5933546042843</v>
       </c>
       <c r="B421" t="n">
-        <v>7.358377729999916</v>
+        <v>3.552e-05</v>
       </c>
       <c r="C421" t="n">
-        <v>1806578.787782168</v>
+        <v>2.3046850968</v>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45401</v>
+        <v>45402</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>24.71008645642775</v>
+        <v>-197.5933571414271</v>
       </c>
       <c r="B422" t="n">
-        <v>-2352.139655720001</v>
+        <v>7.358377729999852</v>
       </c>
       <c r="C422" t="n">
-        <v>-147296982.3012369</v>
+        <v>1806578.787782173</v>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-649.7154874114294</v>
+        <v>24.71008645643009</v>
       </c>
       <c r="B423" t="n">
-        <v>-925.3798754000001</v>
+        <v>-2352.139655720001</v>
       </c>
       <c r="C423" t="n">
-        <v>-58297012.16350417</v>
+        <v>-147296982.301237</v>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45399</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>-567.6072867935724</v>
+        <v>-649.715487411427</v>
       </c>
       <c r="B424" t="n">
-        <v>-3072.438471919999</v>
+        <v>-925.3798753999998</v>
       </c>
       <c r="C424" t="n">
-        <v>-194681388.7868151</v>
+        <v>-58297012.16350412</v>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-425.0337992514295</v>
+        <v>-567.60728679357</v>
       </c>
       <c r="B425" t="n">
-        <v>60.40790596000026</v>
+        <v>-3072.438471919999</v>
       </c>
       <c r="C425" t="n">
-        <v>1575248.212599436</v>
+        <v>-194681388.7868152</v>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-269.7856374971438</v>
+        <v>-425.0337992514272</v>
       </c>
       <c r="B426" t="n">
-        <v>1.092e-05</v>
+        <v>60.40790596000016</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7043410920000001</v>
+        <v>1575248.212599473</v>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45396</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>-269.7856382771438</v>
+        <v>-269.7856374971415</v>
       </c>
       <c r="B427" t="n">
-        <v>8.760000000000001e-06</v>
+        <v>1.092e-05</v>
       </c>
       <c r="C427" t="n">
-        <v>0.5636535426</v>
+        <v>0.7043410920000001</v>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-269.7856389028581</v>
+        <v>-269.7856382771415</v>
       </c>
       <c r="B428" t="n">
-        <v>2461.69710333</v>
+        <v>8.760000000000001e-06</v>
       </c>
       <c r="C428" t="n">
-        <v>168743977.989914</v>
+        <v>0.5636535426</v>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45394</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-445.7824620157152</v>
+        <v>-269.7856389028557</v>
       </c>
       <c r="B429" t="n">
-        <v>543.3373334299998</v>
+        <v>2461.69710333</v>
       </c>
       <c r="C429" t="n">
-        <v>37182799.26511888</v>
+        <v>168743977.989914</v>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-205.2632436200009</v>
+        <v>-445.7824620157129</v>
       </c>
       <c r="B430" t="n">
-        <v>-778.0695089600001</v>
+        <v>543.3373334300001</v>
       </c>
       <c r="C430" t="n">
-        <v>-51323590.00120622</v>
+        <v>37182799.26511891</v>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>250.765927322142</v>
+        <v>-205.2632436199986</v>
       </c>
       <c r="B431" t="n">
-        <v>-3059.55569885</v>
+        <v>-778.0695089600003</v>
       </c>
       <c r="C431" t="n">
-        <v>-217387201.312977</v>
+        <v>-51323590.00120614</v>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>523.1663871664277</v>
+        <v>250.7659273221443</v>
       </c>
       <c r="B432" t="n">
-        <v>4348.47547074</v>
+        <v>-3059.55569885</v>
       </c>
       <c r="C432" t="n">
-        <v>312006330.7817895</v>
+        <v>-217387201.3129771</v>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>54.65561112357059</v>
+        <v>523.1663871664299</v>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>4348.475470740001</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>312006330.7817894</v>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45389</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>54.65561112357059</v>
+        <v>54.65561112357273</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -6518,488 +6518,488 @@
         <v>0</v>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45388</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>54.65561619357059</v>
+        <v>54.65561112357273</v>
       </c>
       <c r="B435" t="n">
-        <v>3119.6065881</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>211887735.4497694</v>
+        <v>0</v>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-203.4813444535722</v>
+        <v>54.65561619357273</v>
       </c>
       <c r="B436" t="n">
-        <v>-11794.09768987</v>
+        <v>3119.606588100001</v>
       </c>
       <c r="C436" t="n">
-        <v>-812530190.0788528</v>
+        <v>211887735.4497694</v>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>313.6043944492851</v>
+        <v>-203.4813444535701</v>
       </c>
       <c r="B437" t="n">
-        <v>224.1349332499996</v>
+        <v>-11794.09768987</v>
       </c>
       <c r="C437" t="n">
-        <v>14060102.16663413</v>
+        <v>-812530190.0788525</v>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-66.81758169285766</v>
+        <v>313.6043944492872</v>
       </c>
       <c r="B438" t="n">
-        <v>-1076.409646329998</v>
+        <v>224.13493325</v>
       </c>
       <c r="C438" t="n">
-        <v>-71116099.93316397</v>
+        <v>14060102.16663413</v>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-148.2890669200007</v>
+        <v>-66.81758169285574</v>
       </c>
       <c r="B439" t="n">
-        <v>2233.882170519998</v>
+        <v>-1076.40964633</v>
       </c>
       <c r="C439" t="n">
-        <v>153744531.4332239</v>
+        <v>-71116099.93316388</v>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-124.6000221085722</v>
+        <v>-148.2890669199986</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>2233.882170520001</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>153744531.4332238</v>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-124.6000216371436</v>
+        <v>-124.6000221085702</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>-454.4187879897654</v>
+        <v>0</v>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45381</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-124.6105690042864</v>
+        <v>-124.6000216371416</v>
       </c>
       <c r="B442" t="n">
-        <v>-2.258420250000068</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="C442" t="n">
-        <v>-159856.1129243973</v>
+        <v>-454.4187879934907</v>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45380</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>68.61705772142776</v>
+        <v>-124.6105690042845</v>
       </c>
       <c r="B443" t="n">
-        <v>3910.60639097</v>
+        <v>-2.258420250000068</v>
       </c>
       <c r="C443" t="n">
-        <v>275578661.0766503</v>
+        <v>-159856.1129243973</v>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>389.0010456242847</v>
+        <v>68.61705772142975</v>
       </c>
       <c r="B444" t="n">
-        <v>5606.338884230001</v>
+        <v>3910.606390969999</v>
       </c>
       <c r="C444" t="n">
-        <v>390112818.2259939</v>
+        <v>275578661.0766504</v>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-629.2500884478583</v>
+        <v>389.0010456242871</v>
       </c>
       <c r="B445" t="n">
-        <v>754.0507389699999</v>
+        <v>5606.33888423</v>
       </c>
       <c r="C445" t="n">
-        <v>52664213.00853474</v>
+        <v>390112818.2259941</v>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>-262.8344820107152</v>
+        <v>-629.2500884478557</v>
       </c>
       <c r="B446" t="n">
-        <v>-2210.67539386</v>
+        <v>754.0507389699993</v>
       </c>
       <c r="C446" t="n">
-        <v>-147520871.7973099</v>
+        <v>52664213.00853465</v>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>193.8019657578559</v>
+        <v>-262.8344820107129</v>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>-2210.67539386</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>-147520871.7973099</v>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>193.8019657578559</v>
+        <v>193.8019657578584</v>
       </c>
       <c r="B448" t="n">
-        <v>7.098e-05</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>4.547672110800001</v>
+        <v>0</v>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>193.8019610778559</v>
+        <v>193.8019657578584</v>
       </c>
       <c r="B449" t="n">
-        <v>-494.310860959999</v>
+        <v>7.098e-05</v>
       </c>
       <c r="C449" t="n">
-        <v>-31367985.52812449</v>
+        <v>4.5476721108</v>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>701.0366626292844</v>
+        <v>193.8019610778584</v>
       </c>
       <c r="B450" t="n">
-        <v>-4554.89734523</v>
+        <v>-494.3108609599993</v>
       </c>
       <c r="C450" t="n">
-        <v>-304557489.8493297</v>
+        <v>-31367985.5281245</v>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1359.38423043857</v>
+        <v>701.036662629287</v>
       </c>
       <c r="B451" t="n">
-        <v>-5101.772732739999</v>
+        <v>-4554.89734523</v>
       </c>
       <c r="C451" t="n">
-        <v>-322007753.7161686</v>
+        <v>-304557489.8493297</v>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2509.34368725857</v>
+        <v>1359.384230438573</v>
       </c>
       <c r="B452" t="n">
-        <v>-2217.010439510001</v>
+        <v>-5101.77273274</v>
       </c>
       <c r="C452" t="n">
-        <v>-146113026.9733106</v>
+        <v>-322007753.7161687</v>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2197.746242760712</v>
+        <v>2509.343687258573</v>
       </c>
       <c r="B453" t="n">
-        <v>2565.528797879998</v>
+        <v>-2217.01043951</v>
       </c>
       <c r="C453" t="n">
-        <v>172960275.9876505</v>
+        <v>-146113026.9733106</v>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1851.501401559284</v>
+        <v>2197.746242760716</v>
       </c>
       <c r="B454" t="n">
-        <v>6.6e-06</v>
+        <v>2565.528797879999</v>
       </c>
       <c r="C454" t="n">
-        <v>0.4459622970000001</v>
+        <v>172960275.9876506</v>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45368</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1851.501401087856</v>
+        <v>1851.501401559287</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.14766314</v>
+        <v>6.6e-06</v>
       </c>
       <c r="C455" t="n">
-        <v>-10290.5098531426</v>
+        <v>0.4459622970000001</v>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45367</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1851.511948454998</v>
+        <v>1851.501401087859</v>
       </c>
       <c r="B456" t="n">
-        <v>2702.928353909999</v>
+        <v>-0.1476631399999999</v>
       </c>
       <c r="C456" t="n">
-        <v>185187398.6687334</v>
+        <v>-10290.5098531426</v>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1738.488624282856</v>
+        <v>1851.511948455001</v>
       </c>
       <c r="B457" t="n">
-        <v>8395.982221609996</v>
+        <v>2702.928353909999</v>
       </c>
       <c r="C457" t="n">
-        <v>593248541.851478</v>
+        <v>185187398.6687334</v>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2017.407225354999</v>
+        <v>1738.488624282859</v>
       </c>
       <c r="B458" t="n">
-        <v>-8649.17699278</v>
+        <v>8395.982221610002</v>
       </c>
       <c r="C458" t="n">
-        <v>-636743727.1100645</v>
+        <v>593248541.851478</v>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>3052.483018187857</v>
+        <v>2017.407225355001</v>
       </c>
       <c r="B459" t="n">
-        <v>5883.869229090001</v>
+        <v>-8649.176992779998</v>
       </c>
       <c r="C459" t="n">
-        <v>415248782.9345957</v>
+        <v>-636743727.1100641</v>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3011.816925527143</v>
+        <v>3052.483018187858</v>
       </c>
       <c r="B460" t="n">
-        <v>4182.234874899996</v>
+        <v>5883.869229089999</v>
       </c>
       <c r="C460" t="n">
-        <v>304163027.9534374</v>
+        <v>415248782.9345958</v>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>3032.401970580001</v>
+        <v>3011.816925527145</v>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>4182.234874899998</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>304163027.9534371</v>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45361</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>3032.401975557858</v>
+        <v>3032.401970580002</v>
       </c>
       <c r="B462" t="n">
-        <v>5.46e-06</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0.3732225588</v>
+        <v>0</v>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45360</v>
+        <v>45361</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>3032.401975167857</v>
+        <v>3032.401975557859</v>
       </c>
       <c r="B463" t="n">
-        <v>6606.97496076</v>
+        <v>5.46e-06</v>
       </c>
       <c r="C463" t="n">
-        <v>446394517.664947</v>
+        <v>0.3732225588</v>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2798.926445543572</v>
+        <v>3032.401975167859</v>
       </c>
       <c r="B464" t="n">
-        <v>4661.9686041</v>
+        <v>6606.974960760001</v>
       </c>
       <c r="C464" t="n">
-        <v>315014420.4590649</v>
+        <v>446394517.664947</v>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1889.667412035715</v>
+        <v>2798.926445543573</v>
       </c>
       <c r="B465" t="n">
-        <v>10997.65966274</v>
+        <v>4661.9686041</v>
       </c>
       <c r="C465" t="n">
-        <v>733893966.5835373</v>
+        <v>315014420.4590647</v>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1236.173997073572</v>
+        <v>1889.667412035715</v>
       </c>
       <c r="B466" t="n">
-        <v>-6579.374662480001</v>
+        <v>10997.65966274</v>
       </c>
       <c r="C466" t="n">
-        <v>-392627160.8998731</v>
+        <v>733893966.5835372</v>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2200.185474765715</v>
+        <v>1236.173997073573</v>
       </c>
       <c r="B467" t="n">
-        <v>-2281.898978939999</v>
+        <v>-6579.374662479998</v>
       </c>
       <c r="C467" t="n">
-        <v>-142002352.5780271</v>
+        <v>-392627160.899873</v>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2363.178258975714</v>
+        <v>2200.185474765715</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>-2281.898978939999</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>-142002352.5780269</v>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2363.178258975714</v>
+        <v>2363.178258975715</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
@@ -7008,180 +7008,180 @@
         <v>0</v>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2363.178258975714</v>
+        <v>2363.178258975715</v>
       </c>
       <c r="B470" t="n">
-        <v>1120.601815500002</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>69178003.89720549</v>
+        <v>0</v>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2910.786096432857</v>
+        <v>2363.178258975715</v>
       </c>
       <c r="B471" t="n">
-        <v>12300.84263662</v>
+        <v>1120.601815500001</v>
       </c>
       <c r="C471" t="n">
-        <v>754404814.436482</v>
+        <v>69178003.89720544</v>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2500.832786222858</v>
+        <v>2910.786096432858</v>
       </c>
       <c r="B472" t="n">
-        <v>5841.884106880007</v>
+        <v>12300.84263662</v>
       </c>
       <c r="C472" t="n">
-        <v>371389234.0822289</v>
+        <v>754404814.4364817</v>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1468.135126807142</v>
+        <v>2500.832786222858</v>
       </c>
       <c r="B473" t="n">
-        <v>5314.543931840001</v>
+        <v>5841.884106880003</v>
       </c>
       <c r="C473" t="n">
-        <v>303235596.4853659</v>
+        <v>371389234.0822293</v>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1835.57441578857</v>
+        <v>1468.135126807143</v>
       </c>
       <c r="B474" t="n">
-        <v>4470.425505639999</v>
+        <v>5314.543931840002</v>
       </c>
       <c r="C474" t="n">
-        <v>236884873.7867045</v>
+        <v>303235596.4853658</v>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2301.225798242856</v>
+        <v>1835.574415788572</v>
       </c>
       <c r="B475" t="n">
-        <v>6.969000000000001e-05</v>
+        <v>4470.425505640002</v>
       </c>
       <c r="C475" t="n">
-        <v>3.6027339633</v>
+        <v>236884873.7867045</v>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2301.225823314285</v>
+        <v>2301.225798242857</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>6.969000000000001e-05</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>3.6027339633</v>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2301.225823314285</v>
+        <v>2301.225823314286</v>
       </c>
       <c r="B477" t="n">
-        <v>3338.31754602</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>170786327.440007</v>
+        <v>0</v>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45345</v>
+        <v>45346</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2715.21000929357</v>
+        <v>2301.225823314286</v>
       </c>
       <c r="B478" t="n">
-        <v>-8067.657865010001</v>
+        <v>3338.31754602</v>
       </c>
       <c r="C478" t="n">
-        <v>-415933601.8093829</v>
+        <v>170786327.440007</v>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>3537.627242789999</v>
+        <v>2715.210009293572</v>
       </c>
       <c r="B479" t="n">
-        <v>1848.751853270001</v>
+        <v>-8067.657865010002</v>
       </c>
       <c r="C479" t="n">
-        <v>94079498.86924145</v>
+        <v>-415933601.809383</v>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>3420.650238506427</v>
+        <v>3537.62724279</v>
       </c>
       <c r="B480" t="n">
-        <v>6916.786025209999</v>
+        <v>1848.75185327</v>
       </c>
       <c r="C480" t="n">
-        <v>356512441.5964984</v>
+        <v>94079498.86924155</v>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2191.927511651427</v>
+        <v>3420.650238506429</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>6916.786025209999</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>356512441.5964985</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2364.406738090713</v>
+        <v>2191.927511651429</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -7190,12 +7190,12 @@
         <v>0</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2364.406738090713</v>
+        <v>2364.406738090714</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
@@ -7204,194 +7204,194 @@
         <v>0</v>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45339</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2364.406738090713</v>
+        <v>2364.406738090714</v>
       </c>
       <c r="B484" t="n">
-        <v>8787.111539899999</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>457280559.3756093</v>
+        <v>0</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45338</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1787.613191511427</v>
+        <v>2364.406738090714</v>
       </c>
       <c r="B485" t="n">
-        <v>6561.496293679998</v>
+        <v>8787.111539900001</v>
       </c>
       <c r="C485" t="n">
-        <v>341881882.3464292</v>
+        <v>457280559.3756095</v>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1620.126189912856</v>
+        <v>1787.613191511429</v>
       </c>
       <c r="B486" t="n">
-        <v>-8615.88312494001</v>
+        <v>6561.49629368</v>
       </c>
       <c r="C486" t="n">
-        <v>-447137335.3837181</v>
+        <v>341881882.3464296</v>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2661.201432913571</v>
+        <v>1620.126189912857</v>
       </c>
       <c r="B487" t="n">
-        <v>10458.69397758</v>
+        <v>-8615.883124940005</v>
       </c>
       <c r="C487" t="n">
-        <v>514778943.801409</v>
+        <v>-447137335.3837181</v>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>511.7111579128567</v>
+        <v>2661.201432913572</v>
       </c>
       <c r="B488" t="n">
-        <v>10989.54486</v>
+        <v>10458.69397758</v>
       </c>
       <c r="C488" t="n">
-        <v>539707429.4543163</v>
+        <v>514778943.8014091</v>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-309.7524697192864</v>
+        <v>511.7111579128576</v>
       </c>
       <c r="B489" t="n">
-        <v>0.00042069</v>
+        <v>10989.54486</v>
       </c>
       <c r="C489" t="n">
-        <v>20.0606068569</v>
+        <v>539707429.4543163</v>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45333</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-309.7524697192864</v>
+        <v>-309.7524697192851</v>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>0.00042069</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>20.0606068569</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-305.7112182028578</v>
+        <v>-309.7524697192851</v>
       </c>
       <c r="B491" t="n">
-        <v>9134.096149729998</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>432659482.7931176</v>
+        <v>0</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1154.913518326429</v>
+        <v>-305.7112182028565</v>
       </c>
       <c r="B492" t="n">
-        <v>3446.183403940001</v>
+        <v>9134.09614973</v>
       </c>
       <c r="C492" t="n">
-        <v>154701388.8971697</v>
+        <v>432659482.7931175</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>-1565.635862384286</v>
+        <v>-1154.913518326428</v>
       </c>
       <c r="B493" t="n">
-        <v>211.0737932999996</v>
+        <v>3446.183403940001</v>
       </c>
       <c r="C493" t="n">
-        <v>9477422.529165311</v>
+        <v>154701388.8971697</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-1927.248358081429</v>
+        <v>-1565.635862384285</v>
       </c>
       <c r="B494" t="n">
-        <v>-10285.33215076</v>
+        <v>211.0737933000004</v>
       </c>
       <c r="C494" t="n">
-        <v>-444203191.8145713</v>
+        <v>9477422.529165346</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-1893.600188917143</v>
+        <v>-1927.248358081428</v>
       </c>
       <c r="B495" t="n">
-        <v>2414.709170149999</v>
+        <v>-10285.33215076</v>
       </c>
       <c r="C495" t="n">
-        <v>102385572.4749395</v>
+        <v>-444203191.8145714</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-2109.119136636429</v>
+        <v>-1893.600188917142</v>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>2414.709170149999</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>102385572.4749395</v>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-2109.119136636429</v>
+        <v>-2109.119136636428</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -7400,194 +7400,194 @@
         <v>0</v>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45325</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-2109.119136636429</v>
+        <v>-2109.119136636428</v>
       </c>
       <c r="B498" t="n">
-        <v>712.0018877900005</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>32602748.68709628</v>
+        <v>0</v>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45324</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-2226.622222583572</v>
+        <v>-2109.119136636428</v>
       </c>
       <c r="B499" t="n">
-        <v>4216.678271299999</v>
+        <v>712.0018877900004</v>
       </c>
       <c r="C499" t="n">
-        <v>180445986.8217051</v>
+        <v>32602748.68709631</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-1780.559428604286</v>
+        <v>-2226.62222258357</v>
       </c>
       <c r="B500" t="n">
-        <v>5959.17027707</v>
+        <v>4216.678271299998</v>
       </c>
       <c r="C500" t="n">
-        <v>261061367.1587763</v>
+        <v>180445986.8217052</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-2194.699775541429</v>
+        <v>-1780.559428604285</v>
       </c>
       <c r="B501" t="n">
-        <v>-19634.16987243</v>
+        <v>5959.170277069999</v>
       </c>
       <c r="C501" t="n">
-        <v>-852983702.5550215</v>
+        <v>261061367.1587763</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-573.6385927464287</v>
+        <v>-2194.699775541427</v>
       </c>
       <c r="B502" t="n">
-        <v>-510.9459268500008</v>
+        <v>-19634.16987243</v>
       </c>
       <c r="C502" t="n">
-        <v>-17891804.74564475</v>
+        <v>-852983702.5550216</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-537.1424551142858</v>
+        <v>-573.6385927464274</v>
       </c>
       <c r="B503" t="n">
-        <v>0.00042069</v>
+        <v>-510.9459268499996</v>
       </c>
       <c r="C503" t="n">
-        <v>17.8199698479</v>
+        <v>-17891804.74564473</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-537.1424851635715</v>
+        <v>-537.1424551142846</v>
       </c>
       <c r="B504" t="n">
-        <v>56.57752123</v>
+        <v>0.00042069</v>
       </c>
       <c r="C504" t="n">
-        <v>2367227.816597329</v>
+        <v>17.8199698479</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45318</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-541.18373668</v>
+        <v>-537.1424851635703</v>
       </c>
       <c r="B505" t="n">
-        <v>-2754.736052</v>
+        <v>56.57752123</v>
       </c>
       <c r="C505" t="n">
-        <v>-109698756.9853562</v>
+        <v>2367227.816597329</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>626.6036540335715</v>
+        <v>-541.1837366799989</v>
       </c>
       <c r="B506" t="n">
-        <v>-2303.929412869999</v>
+        <v>-2754.736051999997</v>
       </c>
       <c r="C506" t="n">
-        <v>-91747734.82496995</v>
+        <v>-109698756.9853563</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>922.63556189</v>
+        <v>626.6036540335724</v>
       </c>
       <c r="B507" t="n">
-        <v>-4851.50114646</v>
+        <v>-2303.929412870006</v>
       </c>
       <c r="C507" t="n">
-        <v>-192267906.0311432</v>
+        <v>-91747734.82496987</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1278.733316378571</v>
+        <v>922.6355618900014</v>
       </c>
       <c r="B508" t="n">
-        <v>-9814.257782459999</v>
+        <v>-4851.501146459997</v>
       </c>
       <c r="C508" t="n">
-        <v>-381626322.0494938</v>
+        <v>-192267906.0311429</v>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2132.040323981538</v>
+        <v>1278.733316378573</v>
       </c>
       <c r="B509" t="n">
-        <v>-602.5560979200063</v>
+        <v>-9814.257782459998</v>
       </c>
       <c r="C509" t="n">
-        <v>-26722990.56636493</v>
+        <v>-381626322.0494941</v>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2359.92335914</v>
+        <v>2132.04032398154</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>-602.5560979199985</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>-26722990.56636517</v>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2574.461846334545</v>
+        <v>2359.923359140001</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -7596,82 +7596,82 @@
         <v>0</v>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45311</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2831.908030968</v>
+        <v>2574.461846334546</v>
       </c>
       <c r="B512" t="n">
-        <v>-933.04131547</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>-39231507.33553457</v>
+        <v>0</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>3250.235736127778</v>
+        <v>2831.908030968001</v>
       </c>
       <c r="B513" t="n">
-        <v>10461.55738701</v>
+        <v>-933.0413154699972</v>
       </c>
       <c r="C513" t="n">
-        <v>435613887.2096587</v>
+        <v>-39231507.33553445</v>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2348.8205297675</v>
+        <v>3250.235736127779</v>
       </c>
       <c r="B514" t="n">
-        <v>161.2054199499989</v>
+        <v>10461.55738701</v>
       </c>
       <c r="C514" t="n">
-        <v>9768947.454021186</v>
+        <v>435613887.2096584</v>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2661.336974027143</v>
+        <v>2348.8205297675</v>
       </c>
       <c r="B515" t="n">
-        <v>3060.686686700001</v>
+        <v>161.2054199500029</v>
       </c>
       <c r="C515" t="n">
-        <v>134653644.8902591</v>
+        <v>9768947.45402135</v>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2594.778688581667</v>
+        <v>2661.336974027143</v>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>3060.6866867</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>134653644.8902592</v>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>3113.734426298</v>
+        <v>2594.778688581667</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
@@ -7680,12 +7680,12 @@
         <v>0</v>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45305</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>3892.1680328725</v>
+        <v>3113.734426298</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -7694,48 +7694,62 @@
         <v>0</v>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45304</v>
+        <v>45305</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>5189.557377163334</v>
+        <v>3892.1680328725</v>
       </c>
       <c r="B519" t="n">
-        <v>13594.28741799</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>610299166.2269511</v>
+        <v>0</v>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45303</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>987.1923567499999</v>
+        <v>5189.557377163334</v>
       </c>
       <c r="B520" t="n">
-        <v>1840.51729712</v>
+        <v>13594.28741799</v>
       </c>
       <c r="C520" t="n">
-        <v>85414588.27968451</v>
+        <v>610299166.2269514</v>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
+        <v>987.19235675</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1840.51729712</v>
+      </c>
+      <c r="C521" t="n">
+        <v>85414588.27968453</v>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
         <v>133.86741638</v>
       </c>
-      <c r="B521" t="n">
+      <c r="B522" t="n">
         <v>133.86741638</v>
       </c>
-      <c r="C521" t="n">
+      <c r="C522" t="n">
         <v>6100695.838987613</v>
       </c>
-      <c r="D521" s="2" t="n">
+      <c r="D522" s="2" t="n">
         <v>45301</v>
       </c>
     </row>
